--- a/data/hotels_by_city/Denver/Denver_shard_20.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="647">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33447-d85318-Reviews-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
   </si>
   <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Candlewood-Suites-Denver-West-Federal-Ctr.h151010.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1853 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r588505150-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>33447</t>
+  </si>
+  <si>
+    <t>85318</t>
+  </si>
+  <si>
+    <t>588505150</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay with easy access to downtown Denver or the mountains and Golden</t>
+  </si>
+  <si>
+    <t>We stayed here on a recent business trip. The rooms are quite spacious not at all cramped. The staff are very friendly, efficient and helpful. We had a little problem with the waste disposal in the kitchen and as soon as we reported it they repaired it immediately.  The kitchen was perfect for us with the full-size refrigerator. As we are very health conscious when traveling this was perfect. We were in good proximity to healthy grocery stores like Sprouts and Whole Foods and even a Target and Walmart were handy.  It took about 15 minutes to get into Denver or to head out to the lovely town of Golden.  The staff really make this place special and we will certainly stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We stayed here on a recent business trip. The rooms are quite spacious not at all cramped. The staff are very friendly, efficient and helpful. We had a little problem with the waste disposal in the kitchen and as soon as we reported it they repaired it immediately.  The kitchen was perfect for us with the full-size refrigerator. As we are very health conscious when traveling this was perfect. We were in good proximity to healthy grocery stores like Sprouts and Whole Foods and even a Target and Walmart were handy.  It took about 15 minutes to get into Denver or to head out to the lovely town of Golden.  The staff really make this place special and we will certainly stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r588152101-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>588152101</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Good value for a family but not so much for a couple</t>
+  </si>
+  <si>
+    <t>The hotel was just okay.  The lobby was small and dark.This hotel appears to be more for families or truckers that need a place to cook, do laundry.  No breakfast included or maid service except weekly. Again, the hotel is okay, it is just not what I expected. I should of done my research before booking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r546010638-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>546010638</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Nice kitchenette and good sized room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We got a one bedroom with a kitchenette for what most places charge for just a room. Nicely decorated and modern decor. Staff were friendly and helpful. Second time staying here and will come back again. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r510187891-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>510187891</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Spacious, clean rooms</t>
+  </si>
+  <si>
+    <t>We stayed here for one night to be reasonably close to Mile High stadium for me to attend a concert. The drive is about 20 minutes from the stadium so that was convenient. Worked out very well.The hotel rooms are clean and modern. Our room was quite large with a kitchen and a work area. Our bed was incredibly soft, as were the pillows. Free wi-fi. The reason for 4 stars is that the refrigerator was rather loud at night. The desk attendant said all rooms have king size beds but ours was closer to queen rather than king. That's fine, but you should know your product.We had no problems with parking, even after returning home from the concert. We would stay here again for a short-term trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for one night to be reasonably close to Mile High stadium for me to attend a concert. The drive is about 20 minutes from the stadium so that was convenient. Worked out very well.The hotel rooms are clean and modern. Our room was quite large with a kitchen and a work area. Our bed was incredibly soft, as were the pillows. Free wi-fi. The reason for 4 stars is that the refrigerator was rather loud at night. The desk attendant said all rooms have king size beds but ours was closer to queen rather than king. That's fine, but you should know your product.We had no problems with parking, even after returning home from the concert. We would stay here again for a short-term trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r500372457-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>500372457</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay for weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff are very nice and accommodating. It is quiet, which is important to me because I have to get up early for work. Love, love, love the mattress !!  The other customers are friendly, too! One of the nicest Candlewood suites that I have stayed. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r495186813-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>495186813</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Excellent value for the money in a great location for mountains and city</t>
+  </si>
+  <si>
+    <t>This is an extended stay hotel, so rooms have a small kitchen incl. fridge, microwave, stove, dishwasher, pots/pans, eating utensils, etc. You can borrow blenders, sandwich presses, etc. for free. The room is a good size and bathroom was clean. Staff at front desk was very friendly and helpful. No free breakfast, but they have a well-stocked pantry with inexpensive items if you're in a bind. Washer &amp; dryers are free to use. Best thing for me is the location close to 6th Avenue, where you can jump on the highway and be in downtown Denver or in the front range mountains in 10-15mins.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r484941743-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>484941743</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Hotel was clean &amp; comfortable and located very near where we needed to be for our business. It is an extended stay property with a full kitchen. Complimentary coffee but you are on your own for breakfast etc.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r452790165-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>452790165</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Emergency Power Outage At Home</t>
+  </si>
+  <si>
+    <t>We had a major flood in our home causing a power outage and a huge mess. Our homeowners insurance was able to contract with Candlewoid to accommodate us during this time.  The facilities and staff were amazing. Made a difficult time much better. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Amanda M, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>We had a major flood in our home causing a power outage and a huge mess. Our homeowners insurance was able to contract with Candlewoid to accommodate us during this time.  The facilities and staff were amazing. Made a difficult time much better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r446192094-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>446192094</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>Cozy hotel</t>
+  </si>
+  <si>
+    <t>The hotel was clean and quiet! It is in a good location with a lot of restaurants in the area. If you want to avoid the high costs of staying in Denver or dear the downtown area, this is the place to be.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r431049488-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>431049488</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Awesome Room</t>
+  </si>
+  <si>
+    <t>We had a great week at Candlewood Suites! The room was big and the bed was super comfy! The hotel had free washer/dryer and a place to buy all kinds of yummy snacks/drinks! The staff was friendly and very helpful! We will hopefully be coming back soon!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Amanda M, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>We had a great week at Candlewood Suites! The room was big and the bed was super comfy! The hotel had free washer/dryer and a place to buy all kinds of yummy snacks/drinks! The staff was friendly and very helpful! We will hopefully be coming back soon!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r426671708-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>426671708</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>These suites are more like small apartments. Very clean, and comfortable! From the lobby, which was very clean, to the rooms themselves, there wasn't anything else we needed, except maybe a hairdryer in the rooms. We've tried other places with suites, and this one is definitely the best! Friendly customer service included!MoreShow less</t>
+  </si>
+  <si>
+    <t>Amanda M, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2016</t>
+  </si>
+  <si>
+    <t>These suites are more like small apartments. Very clean, and comfortable! From the lobby, which was very clean, to the rooms themselves, there wasn't anything else we needed, except maybe a hairdryer in the rooms. We've tried other places with suites, and this one is definitely the best! Friendly customer service included!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r426474552-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>426474552</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Exceeded Expections --</t>
+  </si>
+  <si>
+    <t>We would definitely recommend this hotel.  The staff was nice; the room was clean, modern, comfortable and large.  The kitchen was fully stocked (which was a surprise as we were not familiar with this hotel brand and product.).  The location -- west side of Denver -- kept us out of unnecessary traffic but we were only 8 to 10 minutes from the things we wanted to do "in town."MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We would definitely recommend this hotel.  The staff was nice; the room was clean, modern, comfortable and large.  The kitchen was fully stocked (which was a surprise as we were not familiar with this hotel brand and product.).  The location -- west side of Denver -- kept us out of unnecessary traffic but we were only 8 to 10 minutes from the things we wanted to do "in town."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r414463797-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>414463797</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value. Hidden gem.  Will stop again on next trip. . </t>
+  </si>
+  <si>
+    <t>Excellent value compared to Denver city prices. Bring snacks and treats as suite has kitchenette. Clean. Friendly staff. Somewhat hard to find but a hidden gem! Super soft cozy bed. Quiet room. Will be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r397066799-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>397066799</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Could Use Some Attention - But Good Overall</t>
+  </si>
+  <si>
+    <t>We decided on this hotel due to location and because they were pet friendly.  The a/c unit on the wall did not work, but we discovered that that unit under the window worked.  Unfortunately, it did not cool the room well at all so we were quite warm for the two nights we stayed.  Our room did not have a clock radio, though the desk clerk said we "should" have one and asked if I looked for it.  (yes, I did and it was not there...)The bed was very comfortable and the room was dated but clean.  Wish the shower head was a bit nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Amanda M, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>We decided on this hotel due to location and because they were pet friendly.  The a/c unit on the wall did not work, but we discovered that that unit under the window worked.  Unfortunately, it did not cool the room well at all so we were quite warm for the two nights we stayed.  Our room did not have a clock radio, though the desk clerk said we "should" have one and asked if I looked for it.  (yes, I did and it was not there...)The bed was very comfortable and the room was dated but clean.  Wish the shower head was a bit nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r395073651-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>395073651</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Dog Friendly</t>
+  </si>
+  <si>
+    <t>Check-in was easy, room was clean and had everything we needed and we could have our dog.  The AC didn't seem to work quite right but we were in our room so little that it wasn't that big of a deal.  The grounds were well kept and there is ample space around the hotel for dog walking :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Check-in was easy, room was clean and had everything we needed and we could have our dog.  The AC didn't seem to work quite right but we were in our room so little that it wasn't that big of a deal.  The grounds were well kept and there is ample space around the hotel for dog walking :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r385441683-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>385441683</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Automation engineer</t>
+  </si>
+  <si>
+    <t>+ Very friendly,  well equiped, clean, free laundry, free gym, good connections, good WiFi, nice small shop, terrace with barbecue, big free parking, nice neiborhood, new mattress ...- noisy fridge, solved by turning it off over noghtMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Amanda M, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>+ Very friendly,  well equiped, clean, free laundry, free gym, good connections, good WiFi, nice small shop, terrace with barbecue, big free parking, nice neiborhood, new mattress ...- noisy fridge, solved by turning it off over noghtMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r384679716-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>384679716</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>comfortbale sleep, reasonable rate</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel in June 2016 for 7 nights. When searching for the hotel for my stay I read bunch of negative reviews for other hotels mostly related to smoking of cannabis, noisy location and questionable area. I am very happy I chose Candlewood as none of the above was a problem. I had the room with all the needs met, great sleeping quality (and I am very light sleeper + the jetleg) at a very reasonable price. Kitchen would allow to cook anything from a quick breakfast to a romantic dinner. The only setback was the distance to the city, but having rented a car this was again non-issue for me. 20-30 minutes to any place in the downtown area during rush hours.I'd make one more remark: their mattresses are on a soft side while I am used to harder ones. But as I said place was so unusually quiet to sleep, this was hardly an issue.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel in June 2016 for 7 nights. When searching for the hotel for my stay I read bunch of negative reviews for other hotels mostly related to smoking of cannabis, noisy location and questionable area. I am very happy I chose Candlewood as none of the above was a problem. I had the room with all the needs met, great sleeping quality (and I am very light sleeper + the jetleg) at a very reasonable price. Kitchen would allow to cook anything from a quick breakfast to a romantic dinner. The only setback was the distance to the city, but having rented a car this was again non-issue for me. 20-30 minutes to any place in the downtown area during rush hours.I'd make one more remark: their mattresses are on a soft side while I am used to harder ones. But as I said place was so unusually quiet to sleep, this was hardly an issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r381498516-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>381498516</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Modern,Nice Kitchen, heavily perfumed</t>
+  </si>
+  <si>
+    <t>This was a nice apartment style room with a modern layout.I would stay there again.They do use a very heavy perfume on the room which was overwhelming and I wish they didn't use.It was nice having a kitchen as I prefer to cook myself when possible.The kitchen floor was sticky and needed a good mop.The area was quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a nice apartment style room with a modern layout.I would stay there again.They do use a very heavy perfume on the room which was overwhelming and I wish they didn't use.It was nice having a kitchen as I prefer to cook myself when possible.The kitchen floor was sticky and needed a good mop.The area was quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r368790264-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>368790264</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Our first stay here.</t>
+  </si>
+  <si>
+    <t>The staff was great and very helpful. The room was big enough for two, to stay comfortably for a week. The location was central for what we needed to do while in Denver. Didn't get to use the grill outdoors, too cold while we were there.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Amanda M, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2016</t>
+  </si>
+  <si>
+    <t>The staff was great and very helpful. The room was big enough for two, to stay comfortably for a week. The location was central for what we needed to do while in Denver. Didn't get to use the grill outdoors, too cold while we were there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r351590145-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>351590145</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>The Lakewood Colorado Candlewood Inn &amp; Suite is a no thrills hotel. No meals served, but the room size (I had a suite) and the great services from the front desk along with great house keepers.  Made my four month stay the best for the year of 2015. When I return to my room after the house keeper was finish, my room was like the day I check in the hotel, it was perfect.  Front staff always inform me when I had mail or package to pick up. I will stay here again in the future for all trips to Lakewood area. And laundry is free, lots of washers and dryers. The hotel is little dated, but they are working on updating the hotel when I was there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Amanda M, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>The Lakewood Colorado Candlewood Inn &amp; Suite is a no thrills hotel. No meals served, but the room size (I had a suite) and the great services from the front desk along with great house keepers.  Made my four month stay the best for the year of 2015. When I return to my room after the house keeper was finish, my room was like the day I check in the hotel, it was perfect.  Front staff always inform me when I had mail or package to pick up. I will stay here again in the future for all trips to Lakewood area. And laundry is free, lots of washers and dryers. The hotel is little dated, but they are working on updating the hotel when I was there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r348511149-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>348511149</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Roomy room!</t>
+  </si>
+  <si>
+    <t>I simply reserved a one queen bed room.  I got a one queen bed suite with a kitchenette with counters that flowed into an office work area.  Overall the room was roomy and large, including the bathroom.  All the furniture and decor seemed fairly recently upgraded to more contemporary style, which worked.  The location of the hotel is in a nice suburban area but not far from central Denver, which was nice.  The hotel is also just off the main road, so that made for a nice quiet stay.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r330182541-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>330182541</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>Private because people did not come in every day to straighten up</t>
+  </si>
+  <si>
+    <t>Just fine.  They let me change rooms after i had allergies to the room I was in.  They allow animals/pets on the first floor where I originally was.  They had a television which helped me pass the time when I did not have any outdoor off-site activities. The rooms have kitchenettes so I didn't have to eat out all the time.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Amanda M, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Just fine.  They let me change rooms after i had allergies to the room I was in.  They allow animals/pets on the first floor where I originally was.  They had a television which helped me pass the time when I did not have any outdoor off-site activities. The rooms have kitchenettes so I didn't have to eat out all the time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r318792199-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>318792199</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Great Business Visit/4 weeks</t>
+  </si>
+  <si>
+    <t>The Candlewood (Golden/really Lakewood) was a great find.  It's off Highway 6 (at the Union/Simms Exit) and in the WORST traffic (and ongoing road construction) only took me 25 minutes to reach Denver's center city (10-12 minutes without traffic). Colleen, the HEAD HOUSEKEEPER, is perhaps the hardest working employee I have ever seen and did an immaculate job in keeping my room clean.  Colleen, I never got to thank you for this, but you were great! I mostly dealt with Travis and David at the front desk (the women at the front desk were efficient too but I never got their names) and they are one of the most efficient front desk individuals I ever dealt with ...handing me my nightly business faxes as soon as I walked into the Lobby without even asking!  The only negative I can mention is that some long term guests used the hotel parking lot to repair their cars on the weekends (REALLY!!). This gave the hotel a real low class feel when these individuals were out working on their vehicles.  However, I'm sure this can (and will) be corrected by Management.  I enjoyed the stay ....Thanks,  KirbyMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Amanda M, Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>The Candlewood (Golden/really Lakewood) was a great find.  It's off Highway 6 (at the Union/Simms Exit) and in the WORST traffic (and ongoing road construction) only took me 25 minutes to reach Denver's center city (10-12 minutes without traffic). Colleen, the HEAD HOUSEKEEPER, is perhaps the hardest working employee I have ever seen and did an immaculate job in keeping my room clean.  Colleen, I never got to thank you for this, but you were great! I mostly dealt with Travis and David at the front desk (the women at the front desk were efficient too but I never got their names) and they are one of the most efficient front desk individuals I ever dealt with ...handing me my nightly business faxes as soon as I walked into the Lobby without even asking!  The only negative I can mention is that some long term guests used the hotel parking lot to repair their cars on the weekends (REALLY!!). This gave the hotel a real low class feel when these individuals were out working on their vehicles.  However, I'm sure this can (and will) be corrected by Management.  I enjoyed the stay ....Thanks,  KirbyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r317129658-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>317129658</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Quick Overnight Stay</t>
+  </si>
+  <si>
+    <t>We weren't really impressed with this hotel.  The first room they gave us smelled like smoke.  The second one was a little musty but after we had the A/C going for an hour or so it was alright in the room.  For the price it wasn't anything special.  Nothing really wrong, just a little overpriced for what it is.MoreShow less</t>
+  </si>
+  <si>
+    <t>We weren't really impressed with this hotel.  The first room they gave us smelled like smoke.  The second one was a little musty but after we had the A/C going for an hour or so it was alright in the room.  For the price it wasn't anything special.  Nothing really wrong, just a little overpriced for what it is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r305876113-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>305876113</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Completely upgraded Extended Stay in Lakewood, CO</t>
+  </si>
+  <si>
+    <t>Having stayed in this hotel ten years ago, when it was definitely showing its age, it was a very pleasant surprise to stay there this time.  The entire property, and most especially the suites, have been upgraded and updated with contemporary finishes, fixtures and appointments.  Everything was very clean and very well maintained and it was a pure pleasure to have stayed there.  There are several amenities offered, including: free use of the laundry; free movies and games, and; a very nice pantry for food, drinks and snacks.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Having stayed in this hotel ten years ago, when it was definitely showing its age, it was a very pleasant surprise to stay there this time.  The entire property, and most especially the suites, have been upgraded and updated with contemporary finishes, fixtures and appointments.  Everything was very clean and very well maintained and it was a pure pleasure to have stayed there.  There are several amenities offered, including: free use of the laundry; free movies and games, and; a very nice pantry for food, drinks and snacks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r299954998-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>299954998</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Love extended stay for hanging out with friends</t>
+  </si>
+  <si>
+    <t>No pool or hot tub. You have to go to the Staybridge Suites for an extended stay with IHG for the pool.  Kitchen is fully equipped...Love the ice maker and dishwasher.  Stayed in the one bed rm suite with pull out in separate room.  Plenty of room to play some Apples to Apples or some other board game the front desk has to share.  Free laundry is great and having a fully stocked pantry with some food basics and toiletries is nice.  The outdoor covered patio with two had grills is a nice place to chill.  Staff is great and no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>No pool or hot tub. You have to go to the Staybridge Suites for an extended stay with IHG for the pool.  Kitchen is fully equipped...Love the ice maker and dishwasher.  Stayed in the one bed rm suite with pull out in separate room.  Plenty of room to play some Apples to Apples or some other board game the front desk has to share.  Free laundry is great and having a fully stocked pantry with some food basics and toiletries is nice.  The outdoor covered patio with two had grills is a nice place to chill.  Staff is great and no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r298015468-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>298015468</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay for a long visit</t>
+  </si>
+  <si>
+    <t>Quiet rooms with ample space to spread out and work, eat and live while away from home. The fitness center was well equipped and provided for three types of aerobic workout as well as weights. The free laundry machines were great for doing laundry while on the road. The team working at the hotel was very friendly and helpful throughout the stay. Be aware that it is an extended stay hotel so you only get maid service once a week. it also has a barbeque area if you want to grill and have a picnicMoreShow less</t>
+  </si>
+  <si>
+    <t>Quiet rooms with ample space to spread out and work, eat and live while away from home. The fitness center was well equipped and provided for three types of aerobic workout as well as weights. The free laundry machines were great for doing laundry while on the road. The team working at the hotel was very friendly and helpful throughout the stay. Be aware that it is an extended stay hotel so you only get maid service once a week. it also has a barbeque area if you want to grill and have a picnicMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r277259668-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>277259668</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>Quiet, great location with access to downtown or red rocks/hiking.   Friendly, attentive staff.  Clean rooms.  Plenty of space in the room for dining in (saves you money).  Only wish it had a pool.  Nice laundry/snack area.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Jackie O, Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Quiet, great location with access to downtown or red rocks/hiking.   Friendly, attentive staff.  Clean rooms.  Plenty of space in the room for dining in (saves you money).  Only wish it had a pool.  Nice laundry/snack area.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r274817793-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>274817793</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Clean. Comfortable. Lot's of space.</t>
+  </si>
+  <si>
+    <t>This hotel is located just west of downtown Denver. An easy drive if you need to get downtown or anywhere central. The hotel is located in a residential area with quick access to lots of restaurants and shopping. Olde Town Arvada is just a few minutes up the road. This hotel was clean and in great shape and very, very quite. The bed was super comfortable which was nice after three days of working the floor at a trade show. Also nice to be able to sit on couch and watch a bit of tv after a really long day of work. The hotel did not offer a continental breakfast, but did offer "breakfast burritos" at the front lobby. They were pretty tasty and convenient to grab one and head out the door.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This hotel is located just west of downtown Denver. An easy drive if you need to get downtown or anywhere central. The hotel is located in a residential area with quick access to lots of restaurants and shopping. Olde Town Arvada is just a few minutes up the road. This hotel was clean and in great shape and very, very quite. The bed was super comfortable which was nice after three days of working the floor at a trade show. Also nice to be able to sit on couch and watch a bit of tv after a really long day of work. The hotel did not offer a continental breakfast, but did offer "breakfast burritos" at the front lobby. They were pretty tasty and convenient to grab one and head out the door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r270935503-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>270935503</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Thoughtful Design</t>
+  </si>
+  <si>
+    <t>My title refers to the layout of the room.  Full kitchen to the left, with hardwood floor -  next a ten foot long counter/desk top work area with phone and 4 plug outlet for all our chargers and laptop, tablets, maps, papers, and other junk.  This also has 3 large drawers and shelves and a dvd player under the large, room-corner mounted flat screen tv.  A padded straight back and an adjustable, swivel office chair are here.  2 phones in this room.  Wi-fi works great.To the right of the entry is the large closet.  Next the modern bathroom, huge mirror, 2 lights, modern sink  and tile floor.  Separate switch for fan(I always like that!).Bedroom and eating area has carpet.   Queen bed and big leather armchair.  Large window on the remaining wall.We did not turn on the heat or ac, but had the window open most of the time.As there were no scuff marks, stains  or sighs of wear and tear - I assume this room is all new,   Everything here worked perfectly.  I checked out the exercise room.  Some impressive machines in there.  Also, all appear new.  I tried one and it worked just fine.We were here three days and thoroughly enjoyed our accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>My title refers to the layout of the room.  Full kitchen to the left, with hardwood floor -  next a ten foot long counter/desk top work area with phone and 4 plug outlet for all our chargers and laptop, tablets, maps, papers, and other junk.  This also has 3 large drawers and shelves and a dvd player under the large, room-corner mounted flat screen tv.  A padded straight back and an adjustable, swivel office chair are here.  2 phones in this room.  Wi-fi works great.To the right of the entry is the large closet.  Next the modern bathroom, huge mirror, 2 lights, modern sink  and tile floor.  Separate switch for fan(I always like that!).Bedroom and eating area has carpet.   Queen bed and big leather armchair.  Large window on the remaining wall.We did not turn on the heat or ac, but had the window open most of the time.As there were no scuff marks, stains  or sighs of wear and tear - I assume this room is all new,   Everything here worked perfectly.  I checked out the exercise room.  Some impressive machines in there.  Also, all appear new.  I tried one and it worked just fine.We were here three days and thoroughly enjoyed our accommodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r245748470-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>245748470</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>Good Value and Location</t>
+  </si>
+  <si>
+    <t>I spent a month at this location - terrific value - good location  Whatever it took all I ever had to do was contact any of the following people and it was taken care of. Amanda,Elman,Isabella,Josefina,David, as well as the rest of the staff were all terrific and helpful in any way needed -  Thank you for your kindness and hospitality y'all - I enjoyed my time spent in your location and I will see y'all again soonDocMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Jackie O, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>I spent a month at this location - terrific value - good location  Whatever it took all I ever had to do was contact any of the following people and it was taken care of. Amanda,Elman,Isabella,Josefina,David, as well as the rest of the staff were all terrific and helpful in any way needed -  Thank you for your kindness and hospitality y'all - I enjoyed my time spent in your location and I will see y'all again soonDocMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r243204322-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>243204322</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Business Stay for 3 months, friendly staff, nice room</t>
+  </si>
+  <si>
+    <t>This hotel is pretty good for the traveler whom will be away from home for awhile. I have been staying at the hotel for about a month of my 3-month stay. There is no breakfast or dinner provided by the facility, but there is a "cupboard" room where you can buy small food items, some refrigerated items, and some laundry items. It is in the same room where there are 6 washers and 6 dryers that are free to use. This was a major benefit for me. I am not a fan of laundry facilities generally, but this one is right across from room and it is free, so I don't have to worry about having rolls of quarters available. The room comes with a laundry basket and laundry bags. You can also have the staff do laundry for you and have it charged to your room.
+The staff don't mind if you forward mail to the hotel and are generally pretty accommodating. They will not deliver the mail for you, if you anticipate receiving mail you will need to ask the front desk for your mail. The hotel room is cleaned once a week, and you can change the day as you see fit.  At the entrance, there is a board where the weather is updated daily. During snowy times, they try to remove the snow from the parking lot, and the city of Denver does a pretty good...This hotel is pretty good for the traveler whom will be away from home for awhile. I have been staying at the hotel for about a month of my 3-month stay. There is no breakfast or dinner provided by the facility, but there is a "cupboard" room where you can buy small food items, some refrigerated items, and some laundry items. It is in the same room where there are 6 washers and 6 dryers that are free to use. This was a major benefit for me. I am not a fan of laundry facilities generally, but this one is right across from room and it is free, so I don't have to worry about having rolls of quarters available. The room comes with a laundry basket and laundry bags. You can also have the staff do laundry for you and have it charged to your room.The staff don't mind if you forward mail to the hotel and are generally pretty accommodating. They will not deliver the mail for you, if you anticipate receiving mail you will need to ask the front desk for your mail. The hotel room is cleaned once a week, and you can change the day as you see fit.  At the entrance, there is a board where the weather is updated daily. During snowy times, they try to remove the snow from the parking lot, and the city of Denver does a pretty good job of having the major roads cleared.The room has a queen bed (the only size at the hotel), a large flat screen TV that is movable on the wall, a 5 foot long closet with 10 removable hangers and a shelf, a DVD/VHS player with no remote, a large working table with 3 drawers for clothes, a lounging chair, a business desk chair, an end table with a lamp that has a plug on the front (I use it for my cell phone), and two telephones - one at the desk and another at the end table.  The kitchen has a full-size refrigerator with an automatic icemaker, 4 drinking glasses, a colander, a 4 cup measuring cup, towels and pot holders, 2 burner stove, dishwasher, a toaster, a set of 2 of plates and cutlery, a teapot, electrical plug ins every few feet, a wall mounted thermostat, 2 stainless steel saucepans and a non-stick pan. Weekly the dishwasher soap is replenished. There are 6 cabinets for use above the kitchenette, and 4 pull out drawers below the stove.There is a coffee maker and 4 glass bowls with lids available. Paper towels are stocked weekly. There is wireless internet access available, most of the time it is good enough to stream videos from Netflix or the like. Some days the internet just can't handle streaming well, I would say probably 80% of the time it has been pretty good. The internet access code changes weekly and you can either get the codes from the front desk or call them. I was able to get the first 4 weekly codes on check-in.The bathroom has a tub/shower combination, a towel rack, 2 drawers under the sink, 3 shelves below the sink, a cabinet below the sink where extra toilet paper is stored, 2 shelves above the sink, a blow dryer and a small shampoo. Weekly there are 3 large towels refreshed and if you need more you are able to get them at the front desk or exchange soiled towels for clean ones at any time.The Cupboard room has many appliances available for "rent", where you just ask the staff to use whatever is available and you sign out for the time for however long you plan to use it. They have games, books, DVDs, a blender, crockpot, etc available. There is a mall about 2 miles away from the hotel which has just about everything you could think of. Clothing, food, grocery stores, beauty shops, movie theaters. the mall is a large circular mall broken down into 5 neighborhoods. And there is another mall around 5-10 miles away. There is also a home cooking type place across from the hotel, a Dennys, a steak house, a sushi place a couple of blocks away. I am very satisfied with my stay thus far.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Jackie O, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is pretty good for the traveler whom will be away from home for awhile. I have been staying at the hotel for about a month of my 3-month stay. There is no breakfast or dinner provided by the facility, but there is a "cupboard" room where you can buy small food items, some refrigerated items, and some laundry items. It is in the same room where there are 6 washers and 6 dryers that are free to use. This was a major benefit for me. I am not a fan of laundry facilities generally, but this one is right across from room and it is free, so I don't have to worry about having rolls of quarters available. The room comes with a laundry basket and laundry bags. You can also have the staff do laundry for you and have it charged to your room.
+The staff don't mind if you forward mail to the hotel and are generally pretty accommodating. They will not deliver the mail for you, if you anticipate receiving mail you will need to ask the front desk for your mail. The hotel room is cleaned once a week, and you can change the day as you see fit.  At the entrance, there is a board where the weather is updated daily. During snowy times, they try to remove the snow from the parking lot, and the city of Denver does a pretty good...This hotel is pretty good for the traveler whom will be away from home for awhile. I have been staying at the hotel for about a month of my 3-month stay. There is no breakfast or dinner provided by the facility, but there is a "cupboard" room where you can buy small food items, some refrigerated items, and some laundry items. It is in the same room where there are 6 washers and 6 dryers that are free to use. This was a major benefit for me. I am not a fan of laundry facilities generally, but this one is right across from room and it is free, so I don't have to worry about having rolls of quarters available. The room comes with a laundry basket and laundry bags. You can also have the staff do laundry for you and have it charged to your room.The staff don't mind if you forward mail to the hotel and are generally pretty accommodating. They will not deliver the mail for you, if you anticipate receiving mail you will need to ask the front desk for your mail. The hotel room is cleaned once a week, and you can change the day as you see fit.  At the entrance, there is a board where the weather is updated daily. During snowy times, they try to remove the snow from the parking lot, and the city of Denver does a pretty good job of having the major roads cleared.The room has a queen bed (the only size at the hotel), a large flat screen TV that is movable on the wall, a 5 foot long closet with 10 removable hangers and a shelf, a DVD/VHS player with no remote, a large working table with 3 drawers for clothes, a lounging chair, a business desk chair, an end table with a lamp that has a plug on the front (I use it for my cell phone), and two telephones - one at the desk and another at the end table.  The kitchen has a full-size refrigerator with an automatic icemaker, 4 drinking glasses, a colander, a 4 cup measuring cup, towels and pot holders, 2 burner stove, dishwasher, a toaster, a set of 2 of plates and cutlery, a teapot, electrical plug ins every few feet, a wall mounted thermostat, 2 stainless steel saucepans and a non-stick pan. Weekly the dishwasher soap is replenished. There are 6 cabinets for use above the kitchenette, and 4 pull out drawers below the stove.There is a coffee maker and 4 glass bowls with lids available. Paper towels are stocked weekly. There is wireless internet access available, most of the time it is good enough to stream videos from Netflix or the like. Some days the internet just can't handle streaming well, I would say probably 80% of the time it has been pretty good. The internet access code changes weekly and you can either get the codes from the front desk or call them. I was able to get the first 4 weekly codes on check-in.The bathroom has a tub/shower combination, a towel rack, 2 drawers under the sink, 3 shelves below the sink, a cabinet below the sink where extra toilet paper is stored, 2 shelves above the sink, a blow dryer and a small shampoo. Weekly there are 3 large towels refreshed and if you need more you are able to get them at the front desk or exchange soiled towels for clean ones at any time.The Cupboard room has many appliances available for "rent", where you just ask the staff to use whatever is available and you sign out for the time for however long you plan to use it. They have games, books, DVDs, a blender, crockpot, etc available. There is a mall about 2 miles away from the hotel which has just about everything you could think of. Clothing, food, grocery stores, beauty shops, movie theaters. the mall is a large circular mall broken down into 5 neighborhoods. And there is another mall around 5-10 miles away. There is also a home cooking type place across from the hotel, a Dennys, a steak house, a sushi place a couple of blocks away. I am very satisfied with my stay thus far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r231972879-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>231972879</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Needs remodel very badly!</t>
+  </si>
+  <si>
+    <t>First they are planning to remodel this fall.  I had a room for 3 nights.  There were 3 of us (+wife and daughter).  I cancelled 1 night so we actually stayed 2.  Since our plane was late we arrived around 1am, day 1.  My daughter was sleeping on the pull out hide a bed.  That was the beginning of numerous issues.  The bed itself was pretty pathetic, dirty mattress with numerous stains.... and maybe a few inches thick.  VERY uncomfortable.  So after asking for a clean mattress we were told they would have to exchange it with another room since they don't have any extras (I had asked for 2 mattresses since that seemed like the best solution).  The next day we went down to the breakfast and it was gross (giving it credit).  After seeing it we went out for breakfast on the last day we were there.  The eggs were over cooked, burnt, and very dry.  Not sure what the meat was supposed to be.  The fruit was from a can, I don't remember any fresh fruit.  You can make your own waffle which I've done before and that was OK.  We decided to drive to Vale (day 2) so after discussing this with the front desk they deleted 1 day and we kept the final day (day 3).  We discussed cancelling the last day and moving the courtyard but in the end decided to try it again....First they are planning to remodel this fall.  I had a room for 3 nights.  There were 3 of us (+wife and daughter).  I cancelled 1 night so we actually stayed 2.  Since our plane was late we arrived around 1am, day 1.  My daughter was sleeping on the pull out hide a bed.  That was the beginning of numerous issues.  The bed itself was pretty pathetic, dirty mattress with numerous stains.... and maybe a few inches thick.  VERY uncomfortable.  So after asking for a clean mattress we were told they would have to exchange it with another room since they don't have any extras (I had asked for 2 mattresses since that seemed like the best solution).  The next day we went down to the breakfast and it was gross (giving it credit).  After seeing it we went out for breakfast on the last day we were there.  The eggs were over cooked, burnt, and very dry.  Not sure what the meat was supposed to be.  The fruit was from a can, I don't remember any fresh fruit.  You can make your own waffle which I've done before and that was OK.  We decided to drive to Vale (day 2) so after discussing this with the front desk they deleted 1 day and we kept the final day (day 3).  We discussed cancelling the last day and moving the courtyard but in the end decided to try it again.  Probably not the best move.  When we arrived the pull out bed had a wire sticking through the mattress and we had to be moved to another room (this happened ~11pm).  This front desk person was GREAT.  Why you ask?  She managed to get approval for the 2 bedroom at the 1 bedroom rate.  Wait, the previous front desk person actually increased our room rate from the previous rate we had.  So this manger not only got us our original rate (not a small task) she also maintained that rate for the 2 bedroom.  She was great!  Having said all that the room is clean and wouldn't have been to bad if the room rate wasn't changed, the pull out bed was adequate, and the breakfast was just average (not asking for a lot here).  I gave it 3 stars for the great manager vs the 1 I was thinking about.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Jackie O, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>First they are planning to remodel this fall.  I had a room for 3 nights.  There were 3 of us (+wife and daughter).  I cancelled 1 night so we actually stayed 2.  Since our plane was late we arrived around 1am, day 1.  My daughter was sleeping on the pull out hide a bed.  That was the beginning of numerous issues.  The bed itself was pretty pathetic, dirty mattress with numerous stains.... and maybe a few inches thick.  VERY uncomfortable.  So after asking for a clean mattress we were told they would have to exchange it with another room since they don't have any extras (I had asked for 2 mattresses since that seemed like the best solution).  The next day we went down to the breakfast and it was gross (giving it credit).  After seeing it we went out for breakfast on the last day we were there.  The eggs were over cooked, burnt, and very dry.  Not sure what the meat was supposed to be.  The fruit was from a can, I don't remember any fresh fruit.  You can make your own waffle which I've done before and that was OK.  We decided to drive to Vale (day 2) so after discussing this with the front desk they deleted 1 day and we kept the final day (day 3).  We discussed cancelling the last day and moving the courtyard but in the end decided to try it again....First they are planning to remodel this fall.  I had a room for 3 nights.  There were 3 of us (+wife and daughter).  I cancelled 1 night so we actually stayed 2.  Since our plane was late we arrived around 1am, day 1.  My daughter was sleeping on the pull out hide a bed.  That was the beginning of numerous issues.  The bed itself was pretty pathetic, dirty mattress with numerous stains.... and maybe a few inches thick.  VERY uncomfortable.  So after asking for a clean mattress we were told they would have to exchange it with another room since they don't have any extras (I had asked for 2 mattresses since that seemed like the best solution).  The next day we went down to the breakfast and it was gross (giving it credit).  After seeing it we went out for breakfast on the last day we were there.  The eggs were over cooked, burnt, and very dry.  Not sure what the meat was supposed to be.  The fruit was from a can, I don't remember any fresh fruit.  You can make your own waffle which I've done before and that was OK.  We decided to drive to Vale (day 2) so after discussing this with the front desk they deleted 1 day and we kept the final day (day 3).  We discussed cancelling the last day and moving the courtyard but in the end decided to try it again.  Probably not the best move.  When we arrived the pull out bed had a wire sticking through the mattress and we had to be moved to another room (this happened ~11pm).  This front desk person was GREAT.  Why you ask?  She managed to get approval for the 2 bedroom at the 1 bedroom rate.  Wait, the previous front desk person actually increased our room rate from the previous rate we had.  So this manger not only got us our original rate (not a small task) she also maintained that rate for the 2 bedroom.  She was great!  Having said all that the room is clean and wouldn't have been to bad if the room rate wasn't changed, the pull out bed was adequate, and the breakfast was just average (not asking for a lot here).  I gave it 3 stars for the great manager vs the 1 I was thinking about.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r227818393-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>227818393</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at how nice my room was. The appliances were new. The bathroom was nice. The bed and pillows were fantastic. Loved the entire 2 night stay.  The staff at the desk was very helpful and friendly. I was a very late arrival and the desk clerk was at the desk when I arrived.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie O, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded September 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2014</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at how nice my room was. The appliances were new. The bathroom was nice. The bed and pillows were fantastic. Loved the entire 2 night stay.  The staff at the desk was very helpful and friendly. I was a very late arrival and the desk clerk was at the desk when I arrived.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r227408634-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>227408634</t>
+  </si>
+  <si>
+    <t>09/06/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location, comfy room. </t>
+  </si>
+  <si>
+    <t>Stayed here to be closer to Red Rocks. The location is excellent, close to the mall and tons of restaurants, shopping centers. The room was spacious, and had everything I needed, including a little kitchennete area. Was only here for  2 days but could stay there for months! Favorite part was their 24hr snack shop/laundry area, brilliant idea!  Definitely recommend, great price for what you get. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Stayed here to be closer to Red Rocks. The location is excellent, close to the mall and tons of restaurants, shopping centers. The room was spacious, and had everything I needed, including a little kitchennete area. Was only here for  2 days but could stay there for months! Favorite part was their 24hr snack shop/laundry area, brilliant idea!  Definitely recommend, great price for what you get. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r227378391-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>227378391</t>
+  </si>
+  <si>
+    <t>OK place to crash</t>
+  </si>
+  <si>
+    <t>I've been shocked at the rise in hotel prices across most of the major chains the last several months.  I've been told "Costs have increased" but that argument falls apart when other chains and independents have not increased prices or have had minimal increases.  This Candlewood Suites was higher priced than I'm used to for this class of hotel.  While not acceptable it's not the gouging seen elsewhere.Check-in and check-out were easy, fast and pleasant.  The room was large with all kitchen appliances, cookware and dishes.  The room was very clean (unlike the hallway which had very dirty carpeting) and comfortable.  It was away from highways so it was very quite but not so far off the main roads so as to make it inconvenient.  Our trip was taking us into the Rocky's and this was a good jumping off location.The entry way into the lobby was tight and not a straight walk-in, needing to make a left turn after entering the 1st door to get through the 2nd door.  This made it awkward, but not impossible, to bring in a cart full of luggage.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been shocked at the rise in hotel prices across most of the major chains the last several months.  I've been told "Costs have increased" but that argument falls apart when other chains and independents have not increased prices or have had minimal increases.  This Candlewood Suites was higher priced than I'm used to for this class of hotel.  While not acceptable it's not the gouging seen elsewhere.Check-in and check-out were easy, fast and pleasant.  The room was large with all kitchen appliances, cookware and dishes.  The room was very clean (unlike the hallway which had very dirty carpeting) and comfortable.  It was away from highways so it was very quite but not so far off the main roads so as to make it inconvenient.  Our trip was taking us into the Rocky's and this was a good jumping off location.The entry way into the lobby was tight and not a straight walk-in, needing to make a left turn after entering the 1st door to get through the 2nd door.  This made it awkward, but not impossible, to bring in a cart full of luggage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r220775303-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>220775303</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Good value/location close to Red Rocks</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Candlewood Suites after a recent concert at Red Rocks.  While not fancy by any stretch, there were a surprising number of amenities and the bed was very comfortable.  Free internet, free parking and a kitchen in the room made it even better!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Candlewood Suites after a recent concert at Red Rocks.  While not fancy by any stretch, there were a surprising number of amenities and the bed was very comfortable.  Free internet, free parking and a kitchen in the room made it even better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r218948398-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>218948398</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Good place to stay west of Denver</t>
+  </si>
+  <si>
+    <t>We chose this hotel based on other trip advisor reviews and the location. The room was spotless with plenty of room for the four adults. We didn't use the well stocked kitchen with full appliances but others might find it handy. We only stayed two nights but this would be a great place for an extended stay. We asked for and received a couple of extra pillows. You have to exchange linens and towels at the desk if you want clean ones more than once a week. I need a clean towel every day! The staff was VERY helpful and even printed out our boarding passes the night before we flew out. I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this hotel based on other trip advisor reviews and the location. The room was spotless with plenty of room for the four adults. We didn't use the well stocked kitchen with full appliances but others might find it handy. We only stayed two nights but this would be a great place for an extended stay. We asked for and received a couple of extra pillows. You have to exchange linens and towels at the desk if you want clean ones more than once a week. I need a clean towel every day! The staff was VERY helpful and even printed out our boarding passes the night before we flew out. I would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r217890235-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>217890235</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>" I could live here"</t>
+  </si>
+  <si>
+    <t>A very decent place for the professional traveler, business person, or anyone needing the comforts of home. Great for longer term stays.When I opened the door to my suite, I said to myself, "I could live here"Very comfortable and spacious, with plenty of room to lay out your work.A little kitchen , perfect putting in a few essentials to have on hand, and not always having to go out for eating .With a comfy recliner and a nice flat screen TV- and a beverage &amp; snack, what else could ya ask for.MoreShow less</t>
+  </si>
+  <si>
+    <t>A very decent place for the professional traveler, business person, or anyone needing the comforts of home. Great for longer term stays.When I opened the door to my suite, I said to myself, "I could live here"Very comfortable and spacious, with plenty of room to lay out your work.A little kitchen , perfect putting in a few essentials to have on hand, and not always having to go out for eating .With a comfy recliner and a nice flat screen TV- and a beverage &amp; snack, what else could ya ask for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r214185470-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>214185470</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 10 days and was glad we did.   Central location and easy access to highways.  The kitchen was nice, just wished they had a few more pieces of silverware.   Rooms were clean and pretty sound proof.  Liked having the ability to wash clothes at no charge and they have 5 washers and 6 dryers.   Staff was very friendly and helpful.  Will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 10 days and was glad we did.   Central location and easy access to highways.  The kitchen was nice, just wished they had a few more pieces of silverware.   Rooms were clean and pretty sound proof.  Liked having the ability to wash clothes at no charge and they have 5 washers and 6 dryers.   Staff was very friendly and helpful.  Will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r213500164-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>213500164</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>Pleasant repeat stays</t>
+  </si>
+  <si>
+    <t>Have stayed here twice for 3 nights each time.  Nice place - updated &amp; comfortable.  Wish king size beds were available.  On our first stay there was ice cream left in the freezer - honest mistake.  But there was also an adult film left in the dvd player - that was quite shocking &amp; disgusting to find.Our second stay was great.  The front desk lady kindly allowed us to stay in the same room for all three nights even though the original reservation was just for one night (we added two more nights and got the same room the whole time).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Have stayed here twice for 3 nights each time.  Nice place - updated &amp; comfortable.  Wish king size beds were available.  On our first stay there was ice cream left in the freezer - honest mistake.  But there was also an adult film left in the dvd player - that was quite shocking &amp; disgusting to find.Our second stay was great.  The front desk lady kindly allowed us to stay in the same room for all three nights even though the original reservation was just for one night (we added two more nights and got the same room the whole time).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r210652307-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>210652307</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for one night to see a show at red rocks.  Great location for seeing a concert or heading into the mountains.  Cab ride to red rocks was only $25 each way.  Rooms are nice-clean and roomy.  Only downside is there are no rooms with king sized beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for one night to see a show at red rocks.  Great location for seeing a concert or heading into the mountains.  Cab ride to red rocks was only $25 each way.  Rooms are nice-clean and roomy.  Only downside is there are no rooms with king sized beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r205912000-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>205912000</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>It's not the best but not the worst</t>
+  </si>
+  <si>
+    <t>First things first, Amy was GREAT!!! I travel a lot and my younger brother started traveling with me in the last year and half, and Amy is one of the only guest agents he has ever talked about with a smile on his face. That's saying a lot. He thought she was one of the kindness front desk agent he can remember that was really nice... Well, we arrive very early in Denver. We normally don't have trouble with checking in early if the hotel is not sold out. Well, we were dropped off super early and she was more than kine to check us in early. I also enjoyed David who checked us in another time we stayed there just a few days prior. We used our points to stay this time, and I have to say overall though one problem may have arose, it was resolve as only I know that a IHG property will. To make sure that the guest is satisfied. Thank you all again for good customer service. Rooms are o.k. Bathrooms are nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded June 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2014</t>
+  </si>
+  <si>
+    <t>First things first, Amy was GREAT!!! I travel a lot and my younger brother started traveling with me in the last year and half, and Amy is one of the only guest agents he has ever talked about with a smile on his face. That's saying a lot. He thought she was one of the kindness front desk agent he can remember that was really nice... Well, we arrive very early in Denver. We normally don't have trouble with checking in early if the hotel is not sold out. Well, we were dropped off super early and she was more than kine to check us in early. I also enjoyed David who checked us in another time we stayed there just a few days prior. We used our points to stay this time, and I have to say overall though one problem may have arose, it was resolve as only I know that a IHG property will. To make sure that the guest is satisfied. Thank you all again for good customer service. Rooms are o.k. Bathrooms are nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r205911775-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>205911775</t>
+  </si>
+  <si>
+    <t>Could have been a disaster, but wasn't</t>
+  </si>
+  <si>
+    <t>The day we arrived, there was a problem with the boiler room.  Repairs took longer than expected and we had no hot water.  Then, a pipe broke and did some water damage.  The staff tried to do all they could to make the situation tolerable.  I especially commend the General Manager, Jacquelyn, for going out of her way to make things right.  Guests need to remember that some things can't be helped.  Everything else was great!  Clean room, plenty of space, and the staff is very helpful. We would definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>The day we arrived, there was a problem with the boiler room.  Repairs took longer than expected and we had no hot water.  Then, a pipe broke and did some water damage.  The staff tried to do all they could to make the situation tolerable.  I especially commend the General Manager, Jacquelyn, for going out of her way to make things right.  Guests need to remember that some things can't be helped.  Everything else was great!  Clean room, plenty of space, and the staff is very helpful. We would definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r200275225-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>200275225</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Candlewood-Denver</t>
+  </si>
+  <si>
+    <t>Wonderful hotel. Staff has been so friendly and helpful. Property is quite and clean. Smoke free. The room has all the latest appliances. Nice work area/ eating area. I have no complaints. I like it so well I'll be back next and will stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Candlewood Suit... D, Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded April 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2014</t>
+  </si>
+  <si>
+    <t>Wonderful hotel. Staff has been so friendly and helpful. Property is quite and clean. Smoke free. The room has all the latest appliances. Nice work area/ eating area. I have no complaints. I like it so well I'll be back next and will stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r187792861-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>187792861</t>
+  </si>
+  <si>
+    <t>12/16/2013</t>
+  </si>
+  <si>
+    <t>Comfortable One Night Stay</t>
+  </si>
+  <si>
+    <t>We got to Colorado a day early, so we needed a place to stay before we could check into our condo at Keystone. We picked this hotel because it only cost 10,000 rewards points.We had a  nice suite on the second floor, no smells in the hall, or room as other have complained. Very comfortable queen sized bed, A nice kitchen and bathroom. Very clean.They offer free use of washing machines and dryers on the first floor(bring your own soap). No breakfast so bring your own to cook or eat out. We will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Candlewood Suit... D, General Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded December 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2013</t>
+  </si>
+  <si>
+    <t>We got to Colorado a day early, so we needed a place to stay before we could check into our condo at Keystone. We picked this hotel because it only cost 10,000 rewards points.We had a  nice suite on the second floor, no smells in the hall, or room as other have complained. Very comfortable queen sized bed, A nice kitchen and bathroom. Very clean.They offer free use of washing machines and dryers on the first floor(bring your own soap). No breakfast so bring your own to cook or eat out. We will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r186688812-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>186688812</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Comfortable overnight with all amenities</t>
+  </si>
+  <si>
+    <t>Very enjoyable night. First impressions weren't the best with the small front desk area. But reception was friendly. There was a slight smoke order in the 3rd floor hallway but none in our room. I'm guessing rooms were recently decorated. Smart decor with Ikea like cabinets in kitchen. Perfect setup for travelers who bring snacks, coolers, leftover meals. Large refrigerator, microwave,  ans 2 cup coffee pot. Comfortable bed. Good location with Dennys just down the street for breakfast. Candlewood would be my choice in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very enjoyable night. First impressions weren't the best with the small front desk area. But reception was friendly. There was a slight smoke order in the 3rd floor hallway but none in our room. I'm guessing rooms were recently decorated. Smart decor with Ikea like cabinets in kitchen. Perfect setup for travelers who bring snacks, coolers, leftover meals. Large refrigerator, microwave,  ans 2 cup coffee pot. Comfortable bed. Good location with Dennys just down the street for breakfast. Candlewood would be my choice in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r185906845-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>185906845</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>very surprised and will stay again</t>
+  </si>
+  <si>
+    <t>They are a very friendly hotel from the moment you walk in. I wasn't so sure about staying in a hotel with a kitchen, but wow it was so comfortable and clean.  There was a odor in the hall but you have to remember there are others who are cooking in there kitchens and yes odors do linger. The room we stayed didn't have a odor and was clean and well stocked.  The beds were so comfortable I must say one of the nicest we have been to.  The staff was so helpful with any questions we had.  There is a laundry and you can use it free which I had to look twice to make sure I was reading it right. They have a honor store with many things you can make instead of going out.  I would recommend this hotel and will stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>They are a very friendly hotel from the moment you walk in. I wasn't so sure about staying in a hotel with a kitchen, but wow it was so comfortable and clean.  There was a odor in the hall but you have to remember there are others who are cooking in there kitchens and yes odors do linger. The room we stayed didn't have a odor and was clean and well stocked.  The beds were so comfortable I must say one of the nicest we have been to.  The staff was so helpful with any questions we had.  There is a laundry and you can use it free which I had to look twice to make sure I was reading it right. They have a honor store with many things you can make instead of going out.  I would recommend this hotel and will stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r185303048-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>185303048</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Smoking rooms only, after I was guaranteed non-smoking.</t>
+  </si>
+  <si>
+    <t>I booked a reservation and then went to the hotel the day before so see what the rooms were like.  I could smell smoke in the hotel, because they allow smoking in some of the rooms.  I said that I would not accept a smoking room.  They checked my reservation in the computer, made a note, and guaranteed I would NOT have a smoking room.The next day I check out of my previous hotel, a very nice place where I was getting a discount for an extended stay.  I arrived at Candlewood at 3:45, 45 minutes after the allowable check-in time.  They told me that I was NOT guaranteed a non-smoking room and that they had sold out of non-smoking rooms.So I lost my discount at the previous hotel and was on the street, because THESE PEOPLE CANNOT NOT GUARANTEE NON-SMOKING ROOMS.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewood Suit... D, Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>I booked a reservation and then went to the hotel the day before so see what the rooms were like.  I could smell smoke in the hotel, because they allow smoking in some of the rooms.  I said that I would not accept a smoking room.  They checked my reservation in the computer, made a note, and guaranteed I would NOT have a smoking room.The next day I check out of my previous hotel, a very nice place where I was getting a discount for an extended stay.  I arrived at Candlewood at 3:45, 45 minutes after the allowable check-in time.  They told me that I was NOT guaranteed a non-smoking room and that they had sold out of non-smoking rooms.So I lost my discount at the previous hotel and was on the street, because THESE PEOPLE CANNOT NOT GUARANTEE NON-SMOKING ROOMS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r184930190-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>184930190</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Nice stay without the frills</t>
+  </si>
+  <si>
+    <t>This is a lower priced chain that provides a bit less service. But my room was clean, and the staff was nice. I especially like that I get a frig, dishes, and microwave; and get a nice workable desk and chair instead of just a bed. I would stay here for a week or two very easily if I were in town for an extended stay. I have lived in hotels for weeks before, and I wouldn't mind this one.  If you want a "regular" hotel, pay the extra couple bucks and go to one.  This chain doesn't staff up, so they don't charge you for the extra staff you don't need on an extended or business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Candlewood Suit... D, Front Office Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>This is a lower priced chain that provides a bit less service. But my room was clean, and the staff was nice. I especially like that I get a frig, dishes, and microwave; and get a nice workable desk and chair instead of just a bed. I would stay here for a week or two very easily if I were in town for an extended stay. I have lived in hotels for weeks before, and I wouldn't mind this one.  If you want a "regular" hotel, pay the extra couple bucks and go to one.  This chain doesn't staff up, so they don't charge you for the extra staff you don't need on an extended or business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r184056628-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>184056628</t>
+  </si>
+  <si>
+    <t>11/08/2013</t>
+  </si>
+  <si>
+    <t>Nice location on the West Side of Denver</t>
+  </si>
+  <si>
+    <t>We stayed here while passing through Denver on our way west. We used to live in Denver so were familiar with the hotel area, which was relatively close to many things. The hotel offered a comfortable room and small kitchenette, which was perfect as we were tired of restaurant dining. The little store within the hotel selling drinks, food, and toiletries was also nice. There was a laundry and workout facility on site though we did not use them. I've stayed in slightly more modern Candlewoods, though this one was just fine and was quiet. It was also conveniently located to the Belmar and Denver West shopping areas, as well as downtown Golden. And of course, very close to I-70 heading west.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here while passing through Denver on our way west. We used to live in Denver so were familiar with the hotel area, which was relatively close to many things. The hotel offered a comfortable room and small kitchenette, which was perfect as we were tired of restaurant dining. The little store within the hotel selling drinks, food, and toiletries was also nice. There was a laundry and workout facility on site though we did not use them. I've stayed in slightly more modern Candlewoods, though this one was just fine and was quiet. It was also conveniently located to the Belmar and Denver West shopping areas, as well as downtown Golden. And of course, very close to I-70 heading west.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r170867866-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>170867866</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>A warm welcome</t>
+  </si>
+  <si>
+    <t>The thing that stood out for me at this hotel was the warm reception we received on arrival. The receptionist was very friendly and made us feel welcome. It is a standard Candlewood property with the standard amenities. The kitchen area had everything you would need and the food area was well stocked and reasonably priced.It is not the sort of property I would want to have an extended stay at, but for a couple of nights it is absolutely fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>The thing that stood out for me at this hotel was the warm reception we received on arrival. The receptionist was very friendly and made us feel welcome. It is a standard Candlewood property with the standard amenities. The kitchen area had everything you would need and the food area was well stocked and reasonably priced.It is not the sort of property I would want to have an extended stay at, but for a couple of nights it is absolutely fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r167115803-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>167115803</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>One small room is not a suite</t>
+  </si>
+  <si>
+    <t>First time at Candlewood Suites. We reserved a two room suite. When we got to the room, it was nothing more than a smaller than normal hotel room with a kitchenette (no sofa or living area as described in some other reviews) and a relatively small bathroom. When we asked for what we had reserved, we were told none was available - no discount or compensation was available. I will NEVER stay at a Candlewood Suites again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2013</t>
+  </si>
+  <si>
+    <t>First time at Candlewood Suites. We reserved a two room suite. When we got to the room, it was nothing more than a smaller than normal hotel room with a kitchenette (no sofa or living area as described in some other reviews) and a relatively small bathroom. When we asked for what we had reserved, we were told none was available - no discount or compensation was available. I will NEVER stay at a Candlewood Suites again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r165689591-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>165689591</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>Just like a mini one bed room apartment</t>
+  </si>
+  <si>
+    <t>A full size refrigerator, an over sized executive desk for working and eating, a living area with TV, long sofa, coffee table, and a private separated bedroom, just like a mini one bedroom apartment is the place we had stayed last week in Golden – a suburb in Denver west. Candlewood is special good for its kitchenette. As a frequently traveler, I choose Candlewood because it provides enough utensils. Not only it has cups, glassware, knives, forks, spoons, dishes, cooking pots, but also provides paper towel, dish detergent, and equipped with dish washer. This is a queen bed suite with sofa bed nonsmoking room. The best is its stove which has a timer to control all burners cooking timer maximum to 30 minutes. This can reduce the chance of food burned and causing fire.  I think it is a wonderful design, not just for busy business travelers, tired tourists; it is especially good for aged people. I don’t remember other Candlewood Suite I ever stayed had this installed nor do I know if it is in all rooms in this Candlewood Suite. Due to our busy schedule I haven’t had chance to ask the staff. I definitely want to stay there next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>A full size refrigerator, an over sized executive desk for working and eating, a living area with TV, long sofa, coffee table, and a private separated bedroom, just like a mini one bedroom apartment is the place we had stayed last week in Golden – a suburb in Denver west. Candlewood is special good for its kitchenette. As a frequently traveler, I choose Candlewood because it provides enough utensils. Not only it has cups, glassware, knives, forks, spoons, dishes, cooking pots, but also provides paper towel, dish detergent, and equipped with dish washer. This is a queen bed suite with sofa bed nonsmoking room. The best is its stove which has a timer to control all burners cooking timer maximum to 30 minutes. This can reduce the chance of food burned and causing fire.  I think it is a wonderful design, not just for busy business travelers, tired tourists; it is especially good for aged people. I don’t remember other Candlewood Suite I ever stayed had this installed nor do I know if it is in all rooms in this Candlewood Suite. Due to our busy schedule I haven’t had chance to ask the staff. I definitely want to stay there next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r160848331-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>160848331</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, clean, convenient, good for business travel</t>
+  </si>
+  <si>
+    <t>The first floor room was large, with a nice kitchenette/dining table area, comfortable bed,  nice pillows. The hotel has a small convenience store (honor system) for you to purchase breakfast/snack items, great for eating breakfast in the room.  Plenty of parking. A short drive to  many restaurants. Staff were friendly helpful and the desk is staffed 24/7. Very reasonably priced Access from the highway good.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r152541468-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>152541468</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Very nice staff, excellant location, nice room</t>
+  </si>
+  <si>
+    <t>This was the best Candlewood location we have ever stayed at.  All three employees we dealt with were awesome!  The room is very nicely done.  It's tucked back off a main road, very quiet, no rif raf.  Lots of people with dogs, so it must be very pet friendly.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r151629387-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>151629387</t>
+  </si>
+  <si>
+    <t>02/07/2013</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was our home away from home for about 3 months. The pantry and laundry facilities are wonderful. The room was spacious enough for me to set up my entire sewing machine with extension table. Very comfortable. Nice staff. We had one issue and they promptly gave us points and even cleaned the room after the maid staff had forgotten. Very nice. </t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r147816361-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>147816361</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>No hot water, no blankets</t>
+  </si>
+  <si>
+    <t>I checked in then went to the airport to pick up my husband and daughters, who were coming in for my mother's funeral the next day. When we got back to the room, there was a note on the door that there would be no hot water from 10 a.m. to 5 p.m. the next day. The kitchen floor was dirty. The new "high tech" climate control system alternates between heating and air conditioning with no way to control it. My daughter on the sleeper bed was miserably cold the first night. When we asked for more blankets for the second night, we were given one thin blanket and told that was all they had, even though the hotel was about one third full.MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked in then went to the airport to pick up my husband and daughters, who were coming in for my mother's funeral the next day. When we got back to the room, there was a note on the door that there would be no hot water from 10 a.m. to 5 p.m. the next day. The kitchen floor was dirty. The new "high tech" climate control system alternates between heating and air conditioning with no way to control it. My daughter on the sleeper bed was miserably cold the first night. When we asked for more blankets for the second night, we were given one thin blanket and told that was all they had, even though the hotel was about one third full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r146871103-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>146871103</t>
+  </si>
+  <si>
+    <t>12/06/2012</t>
+  </si>
+  <si>
+    <t>Nice Remodel</t>
+  </si>
+  <si>
+    <t>I stayed here a year ago and wasn't that impressed.  Since this property has been remodeled, it is SO MUCH BETTER!!  The new staff is nicer and the rooms are cleaner than they were before.  The rates are very reasonable and the location is great.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r146343148-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>146343148</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>It all started when checking in. We booked through a travel site and had proof the room was paid for and had the card used but when we got there they told my husband all that did was hold the room that it wasn't paid for yet the papers we had said it was. Instead of giving them the card we paid in cash so we didn't get any weird charges. When we got in the room it was clear it could use some updating but was ok. The dishes were dirty though and the fridge was not working correctly and sometimes just stopped working period. We said something about they said they would look at it after we left. Really? We decided to watch some tv to relax and we went to use the remote and it didn't work. We thought it only needed batteries but it was an old remote and they said they would be up shortly with a new one. I was changing and getting ready for bed when a man came up knocked once and came in didn't even wait for anyone to answer the door so I had to jump in the bed and cover up quickly. He grabbed a the chair at the "desk" and sat down and started to program the remote. It wasn't even ready to use!!! He said he didn't know what rooms still needed the new remote. Wouldn't you...It all started when checking in. We booked through a travel site and had proof the room was paid for and had the card used but when we got there they told my husband all that did was hold the room that it wasn't paid for yet the papers we had said it was. Instead of giving them the card we paid in cash so we didn't get any weird charges. When we got in the room it was clear it could use some updating but was ok. The dishes were dirty though and the fridge was not working correctly and sometimes just stopped working period. We said something about they said they would look at it after we left. Really? We decided to watch some tv to relax and we went to use the remote and it didn't work. We thought it only needed batteries but it was an old remote and they said they would be up shortly with a new one. I was changing and getting ready for bed when a man came up knocked once and came in didn't even wait for anyone to answer the door so I had to jump in the bed and cover up quickly. He grabbed a the chair at the "desk" and sat down and started to program the remote. It wasn't even ready to use!!! He said he didn't know what rooms still needed the new remote. Wouldn't you check that before a guest arrives? We muddled our way through and when we went to check out no one was at the desk. We had to wait 20 minutes for someone. He did apologize and got us checked out. Because of the service I will stay somewhere else next time. MoreShow less</t>
+  </si>
+  <si>
+    <t>It all started when checking in. We booked through a travel site and had proof the room was paid for and had the card used but when we got there they told my husband all that did was hold the room that it wasn't paid for yet the papers we had said it was. Instead of giving them the card we paid in cash so we didn't get any weird charges. When we got in the room it was clear it could use some updating but was ok. The dishes were dirty though and the fridge was not working correctly and sometimes just stopped working period. We said something about they said they would look at it after we left. Really? We decided to watch some tv to relax and we went to use the remote and it didn't work. We thought it only needed batteries but it was an old remote and they said they would be up shortly with a new one. I was changing and getting ready for bed when a man came up knocked once and came in didn't even wait for anyone to answer the door so I had to jump in the bed and cover up quickly. He grabbed a the chair at the "desk" and sat down and started to program the remote. It wasn't even ready to use!!! He said he didn't know what rooms still needed the new remote. Wouldn't you...It all started when checking in. We booked through a travel site and had proof the room was paid for and had the card used but when we got there they told my husband all that did was hold the room that it wasn't paid for yet the papers we had said it was. Instead of giving them the card we paid in cash so we didn't get any weird charges. When we got in the room it was clear it could use some updating but was ok. The dishes were dirty though and the fridge was not working correctly and sometimes just stopped working period. We said something about they said they would look at it after we left. Really? We decided to watch some tv to relax and we went to use the remote and it didn't work. We thought it only needed batteries but it was an old remote and they said they would be up shortly with a new one. I was changing and getting ready for bed when a man came up knocked once and came in didn't even wait for anyone to answer the door so I had to jump in the bed and cover up quickly. He grabbed a the chair at the "desk" and sat down and started to program the remote. It wasn't even ready to use!!! He said he didn't know what rooms still needed the new remote. Wouldn't you check that before a guest arrives? We muddled our way through and when we went to check out no one was at the desk. We had to wait 20 minutes for someone. He did apologize and got us checked out. Because of the service I will stay somewhere else next time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r141856281-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>141856281</t>
+  </si>
+  <si>
+    <t>10/02/2012</t>
+  </si>
+  <si>
+    <t>Europeans, don't confuse this with a short-stay hotel!</t>
+  </si>
+  <si>
+    <t>Absolutely great place, but is a long-stay place. Rooms are freshly refurbished and done superbly with large kitchen area. But this is intended as a long-stay location, essentially self-catering apartments, so no breakfast/restaurant area, but shop-snacks available, as is laundry facilites. The local Dennys is good for breakfast though. Otherwise, thoroughly recommend it - quiet, very friendly staff, clean.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r138880460-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>138880460</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>Just ok..</t>
+  </si>
+  <si>
+    <t>We stayed here for four nights were in town for a concert at Red Rocks Amp. When first checked in we asked for non smoking room, when got to room clearly was a smoking room it was HORRIBLE the second we opened the door! Went to front desk and room was changed with no issue. Having the kitchen, sink, dish washer &amp; full size fridge was great. Basic rooms which I am used to dont need anything special since we arent in the room much..There is no pool which isnt a big deal but doesnt leave much of an area to relax outside, there is a little area with BBQ but there was alway few people there which didnt leave much rooms for others. Close to some things but pretty far from Downtown Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>We stayed here for four nights were in town for a concert at Red Rocks Amp. When first checked in we asked for non smoking room, when got to room clearly was a smoking room it was HORRIBLE the second we opened the door! Went to front desk and room was changed with no issue. Having the kitchen, sink, dish washer &amp; full size fridge was great. Basic rooms which I am used to dont need anything special since we arent in the room much..There is no pool which isnt a big deal but doesnt leave much of an area to relax outside, there is a little area with BBQ but there was alway few people there which didnt leave much rooms for others. Close to some things but pretty far from Downtown Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r138052630-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>138052630</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Eh, There Are Probably Better Choices</t>
+  </si>
+  <si>
+    <t>We booked rooms here because everything else in the area was booked. The staff was fine, but I didn't interact with them much and did not have any special requests so hard ot say how they respond to problems or issues.
+The rooms are decent size, but definitely older. What's odd is the bedding decor and the chair and maybe even the carpet seemed more updated, but everything else was old. The bathroom in particular was old with weaker water pressure. I also found that the room smelled musty, but after running the AC it was fine. The room was not spotless and in general the housekeeping left something to be desired. They only clean once per week, but watching the staff in the hall cleaning other rooms did not instill confidence that mine would be done well and it was not. The kitchen was nice other than the garbage under the sink is a bag that hangs on a frame that does not work. If there is ANY garbage in the bag, the cupboard doesn't close.
+I liked the free laundry and they also provide DVDs to loan at no charge (all rooms have a DVD player) which is a nice touch. I did not like that they charge you for coffee - most hotels have it available all day. They provide you with two packets of grounds in your room, but after that you must pay to get...We booked rooms here because everything else in the area was booked. The staff was fine, but I didn't interact with them much and did not have any special requests so hard ot say how they respond to problems or issues.The rooms are decent size, but definitely older. What's odd is the bedding decor and the chair and maybe even the carpet seemed more updated, but everything else was old. The bathroom in particular was old with weaker water pressure. I also found that the room smelled musty, but after running the AC it was fine. The room was not spotless and in general the housekeeping left something to be desired. They only clean once per week, but watching the staff in the hall cleaning other rooms did not instill confidence that mine would be done well and it was not. The kitchen was nice other than the garbage under the sink is a bag that hangs on a frame that does not work. If there is ANY garbage in the bag, the cupboard doesn't close.I liked the free laundry and they also provide DVDs to loan at no charge (all rooms have a DVD player) which is a nice touch. I did not like that they charge you for coffee - most hotels have it available all day. They provide you with two packets of grounds in your room, but after that you must pay to get more grounds or you can pay for a brewed cup in their pantry area.The location is good if you're visiting the west side of Denver, e.g. Red Rocks and you can hop on the hwy into town, but there isn't much within walking distance.If we had other choices we would chosen something else, but we paid a low rate and it was fine if you must.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We booked rooms here because everything else in the area was booked. The staff was fine, but I didn't interact with them much and did not have any special requests so hard ot say how they respond to problems or issues.
+The rooms are decent size, but definitely older. What's odd is the bedding decor and the chair and maybe even the carpet seemed more updated, but everything else was old. The bathroom in particular was old with weaker water pressure. I also found that the room smelled musty, but after running the AC it was fine. The room was not spotless and in general the housekeeping left something to be desired. They only clean once per week, but watching the staff in the hall cleaning other rooms did not instill confidence that mine would be done well and it was not. The kitchen was nice other than the garbage under the sink is a bag that hangs on a frame that does not work. If there is ANY garbage in the bag, the cupboard doesn't close.
+I liked the free laundry and they also provide DVDs to loan at no charge (all rooms have a DVD player) which is a nice touch. I did not like that they charge you for coffee - most hotels have it available all day. They provide you with two packets of grounds in your room, but after that you must pay to get...We booked rooms here because everything else in the area was booked. The staff was fine, but I didn't interact with them much and did not have any special requests so hard ot say how they respond to problems or issues.The rooms are decent size, but definitely older. What's odd is the bedding decor and the chair and maybe even the carpet seemed more updated, but everything else was old. The bathroom in particular was old with weaker water pressure. I also found that the room smelled musty, but after running the AC it was fine. The room was not spotless and in general the housekeeping left something to be desired. They only clean once per week, but watching the staff in the hall cleaning other rooms did not instill confidence that mine would be done well and it was not. The kitchen was nice other than the garbage under the sink is a bag that hangs on a frame that does not work. If there is ANY garbage in the bag, the cupboard doesn't close.I liked the free laundry and they also provide DVDs to loan at no charge (all rooms have a DVD player) which is a nice touch. I did not like that they charge you for coffee - most hotels have it available all day. They provide you with two packets of grounds in your room, but after that you must pay to get more grounds or you can pay for a brewed cup in their pantry area.The location is good if you're visiting the west side of Denver, e.g. Red Rocks and you can hop on the hwy into town, but there isn't much within walking distance.If we had other choices we would chosen something else, but we paid a low rate and it was fine if you must.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r135902273-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>135902273</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>A good price for the area</t>
+  </si>
+  <si>
+    <t>We stayed here the night before we flew back home and were very pleased to discover that we had a very large room which meant we could spread out our possessions as we needed to repack our suitcases properly after 4 weeks away from home.   Reception staff were very helpful and even checked us on to our flight as there was no computer available for visitors to use.  They also recommended a superb restaurant for our evening meal.The hotel was fully booked and we would happily stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r135553309-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>135553309</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>.Frustrating Experience</t>
+  </si>
+  <si>
+    <t>The room we had booked was not adequate and did not fit the description on Hotels.com.  When I asked if a cot could be brought into the room, I was told by the young man at the desk that there were no cots but that he would give me a blanket and a pillow and I could sleep on the floor.  We moved to a different hotel.  Candlewood Suites listed us as "no shows" and charged us for the three nights that we had originally booked.  To date, neither Candlewood Suites nor Hotels.com have done anything to resolve this situation.  I will not use Hotels.com again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2012</t>
+  </si>
+  <si>
+    <t>The room we had booked was not adequate and did not fit the description on Hotels.com.  When I asked if a cot could be brought into the room, I was told by the young man at the desk that there were no cots but that he would give me a blanket and a pillow and I could sleep on the floor.  We moved to a different hotel.  Candlewood Suites listed us as "no shows" and charged us for the three nights that we had originally booked.  To date, neither Candlewood Suites nor Hotels.com have done anything to resolve this situation.  I will not use Hotels.com again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r132962276-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>132962276</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Very disappointed this time around!</t>
+  </si>
+  <si>
+    <t>After a long flight from the east coast, we got to there @ 12:30am and my crew and I were looking forward to enjoy a restful night's sleep. It didn't happen. The room they had assigned to us was full of cat's hair everywhere. I mean really bad; on the pillows, on the bed's skirt, and all over the rug! And in addition, the cleaning staff had forgotten to change the bed sheets so the bed was packed with black human hairs!!! Very yummy! Completely unacceptable. The manager did refund my upgrade charge of $140 for one of the two suites i booked for a week's stay, but i think that with the situation they should have refunded way more than that. On the upside the front desk staff was very nice and helpful. But please address this cleaning staff problem asap!!! I stayed at this location many times throughout the years and it's always been fine, but this time had such a disgusting and disappointing start to our stay...MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, IHG Care at Candlewood Suites Denver - Lakewood, responded to this reviewResponded August 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2012</t>
+  </si>
+  <si>
+    <t>After a long flight from the east coast, we got to there @ 12:30am and my crew and I were looking forward to enjoy a restful night's sleep. It didn't happen. The room they had assigned to us was full of cat's hair everywhere. I mean really bad; on the pillows, on the bed's skirt, and all over the rug! And in addition, the cleaning staff had forgotten to change the bed sheets so the bed was packed with black human hairs!!! Very yummy! Completely unacceptable. The manager did refund my upgrade charge of $140 for one of the two suites i booked for a week's stay, but i think that with the situation they should have refunded way more than that. On the upside the front desk staff was very nice and helpful. But please address this cleaning staff problem asap!!! I stayed at this location many times throughout the years and it's always been fine, but this time had such a disgusting and disappointing start to our stay...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r129887808-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>129887808</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>Very nicely maintained; good place</t>
+  </si>
+  <si>
+    <t>I booked three rooms for participants in a nearby business meeting, got a good price through Priceline bid. All the rooms were clean, comfortable and well-appointed. Free internet was via hardwired ethernet - wifi may have been available too I didn't try. No complaints.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r129678773-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>129678773</t>
+  </si>
+  <si>
+    <t>05/09/2012</t>
+  </si>
+  <si>
+    <t>3 1/2 stars....but they renovating</t>
+  </si>
+  <si>
+    <t>I felt comfortable there.  
+We stayed there for 2 1/2 months.  Room was very clean, really nice housekeeping staff.  They seem to care about their hotel and about doing a good job.  Bed was comfy.  Room needs updating in furniture and the kitchen cabinets need updating also.  People staying there were very nice, all job related stays.   
+The location I felt was secure.  It was far enough and away from Colfax, and just north of a nice area to find lots of eats.  It was very quiet.  However, cell phone service was sketchy if you don't have the newest cell on the market.  Also, the landlines were crackly with lots of white noise.  Hopefully they will be replacing these in the renovation.  
+Kitchen needs updating, fridge froze the food no matter what setting.  But GREAT pots and pans!  Best I have found in any extended stay hotel (yah, I know its a weird comment, but for someone that actually wants to use the kitchen, you need decent cookware).  
+Laundry was ok.  They need replacing, but they work very good.  Dryers have no timers on them but you don't have to pay for them!  Nice area to wait for your laundry.  I used their gym (next door to the laundry room) a few times, had many things that one might want.  Most of the equipment was updated.  
+They were painting the outside when we left.  A contractor came in and measured...I felt comfortable there.  We stayed there for 2 1/2 months.  Room was very clean, really nice housekeeping staff.  They seem to care about their hotel and about doing a good job.  Bed was comfy.  Room needs updating in furniture and the kitchen cabinets need updating also.  People staying there were very nice, all job related stays.   The location I felt was secure.  It was far enough and away from Colfax, and just north of a nice area to find lots of eats.  It was very quiet.  However, cell phone service was sketchy if you don't have the newest cell on the market.  Also, the landlines were crackly with lots of white noise.  Hopefully they will be replacing these in the renovation.  Kitchen needs updating, fridge froze the food no matter what setting.  But GREAT pots and pans!  Best I have found in any extended stay hotel (yah, I know its a weird comment, but for someone that actually wants to use the kitchen, you need decent cookware).  Laundry was ok.  They need replacing, but they work very good.  Dryers have no timers on them but you don't have to pay for them!  Nice area to wait for your laundry.  I used their gym (next door to the laundry room) a few times, had many things that one might want.  Most of the equipment was updated.  They were painting the outside when we left.  A contractor came in and measured the room and they said they would be soon renovating the entire hotel.  Even with all the comments I've said, I would definitely stay here again.  And I'm picky about hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded June 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2012</t>
+  </si>
+  <si>
+    <t>I felt comfortable there.  
+We stayed there for 2 1/2 months.  Room was very clean, really nice housekeeping staff.  They seem to care about their hotel and about doing a good job.  Bed was comfy.  Room needs updating in furniture and the kitchen cabinets need updating also.  People staying there were very nice, all job related stays.   
+The location I felt was secure.  It was far enough and away from Colfax, and just north of a nice area to find lots of eats.  It was very quiet.  However, cell phone service was sketchy if you don't have the newest cell on the market.  Also, the landlines were crackly with lots of white noise.  Hopefully they will be replacing these in the renovation.  
+Kitchen needs updating, fridge froze the food no matter what setting.  But GREAT pots and pans!  Best I have found in any extended stay hotel (yah, I know its a weird comment, but for someone that actually wants to use the kitchen, you need decent cookware).  
+Laundry was ok.  They need replacing, but they work very good.  Dryers have no timers on them but you don't have to pay for them!  Nice area to wait for your laundry.  I used their gym (next door to the laundry room) a few times, had many things that one might want.  Most of the equipment was updated.  
+They were painting the outside when we left.  A contractor came in and measured...I felt comfortable there.  We stayed there for 2 1/2 months.  Room was very clean, really nice housekeeping staff.  They seem to care about their hotel and about doing a good job.  Bed was comfy.  Room needs updating in furniture and the kitchen cabinets need updating also.  People staying there were very nice, all job related stays.   The location I felt was secure.  It was far enough and away from Colfax, and just north of a nice area to find lots of eats.  It was very quiet.  However, cell phone service was sketchy if you don't have the newest cell on the market.  Also, the landlines were crackly with lots of white noise.  Hopefully they will be replacing these in the renovation.  Kitchen needs updating, fridge froze the food no matter what setting.  But GREAT pots and pans!  Best I have found in any extended stay hotel (yah, I know its a weird comment, but for someone that actually wants to use the kitchen, you need decent cookware).  Laundry was ok.  They need replacing, but they work very good.  Dryers have no timers on them but you don't have to pay for them!  Nice area to wait for your laundry.  I used their gym (next door to the laundry room) a few times, had many things that one might want.  Most of the equipment was updated.  They were painting the outside when we left.  A contractor came in and measured the room and they said they would be soon renovating the entire hotel.  Even with all the comments I've said, I would definitely stay here again.  And I'm picky about hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r129558101-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>129558101</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>terrible hotel stay</t>
+  </si>
+  <si>
+    <t>We recently stayed in a standard suite on the second floor at this hotel.  While the size of the room was great, everything else about our stay was terrible.  The elevator always smelled like smoke (there was smoking on the third floor).  The hallways had a terrible odor.  Apparently there is no turn-down service because our bed was never made and we never received fresh towels or toiletries (we stayed three nights).  Also, one night we had a drunk guest violently yelling and kicking on our door trying to break into our room at 1:30am.  He had thought our room was supposed to be his (even though his room was on the floor above us).  We called the front desk and informed them that someone was trying to kick in our door and told them to call the police.  The drunk man eventually left and checked into his room directly above us.  We continued to hear loud banging and yelling in his room.  The front desk never called the police and they never apoligized for our experience.  So needless to stay...this hotel had smelly hallways, dirty rooms, and drunken guests.  I WILL NOT be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Denver - Lakewood, responded to this reviewResponded June 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2012</t>
+  </si>
+  <si>
+    <t>We recently stayed in a standard suite on the second floor at this hotel.  While the size of the room was great, everything else about our stay was terrible.  The elevator always smelled like smoke (there was smoking on the third floor).  The hallways had a terrible odor.  Apparently there is no turn-down service because our bed was never made and we never received fresh towels or toiletries (we stayed three nights).  Also, one night we had a drunk guest violently yelling and kicking on our door trying to break into our room at 1:30am.  He had thought our room was supposed to be his (even though his room was on the floor above us).  We called the front desk and informed them that someone was trying to kick in our door and told them to call the police.  The drunk man eventually left and checked into his room directly above us.  We continued to hear loud banging and yelling in his room.  The front desk never called the police and they never apoligized for our experience.  So needless to stay...this hotel had smelly hallways, dirty rooms, and drunken guests.  I WILL NOT be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r127743997-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>127743997</t>
+  </si>
+  <si>
+    <t>04/12/2012</t>
+  </si>
+  <si>
+    <t>Another fantastic stay at Candlewood Suites</t>
+  </si>
+  <si>
+    <t>My wife, my sister and I stayed in a suite at this fine hotel for one night and I wish we could've stayed longer. There is plenty of free parking in front of the hotel. Check in was a breeze and we even got three free bottles of water for spinning the prize wheel at the front desk. The staff were very accomodating as we showed up early with a ton of luggage/ski gear. We were able to stow our gear in a vacant room free of charge, until we checked in later in the day. Our suite was very well equipped with a full size kitchen, two tvs, a pull out sofa and plenty of closet space. The hotel also offers a free, very fast wi fi connection. All in all it was a wonderful stay and we will definitley be returning again soon. Keep up the great work!MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife, my sister and I stayed in a suite at this fine hotel for one night and I wish we could've stayed longer. There is plenty of free parking in front of the hotel. Check in was a breeze and we even got three free bottles of water for spinning the prize wheel at the front desk. The staff were very accomodating as we showed up early with a ton of luggage/ski gear. We were able to stow our gear in a vacant room free of charge, until we checked in later in the day. Our suite was very well equipped with a full size kitchen, two tvs, a pull out sofa and plenty of closet space. The hotel also offers a free, very fast wi fi connection. All in all it was a wonderful stay and we will definitley be returning again soon. Keep up the great work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r118446686-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>118446686</t>
+  </si>
+  <si>
+    <t>09/22/2011</t>
+  </si>
+  <si>
+    <t>Excellent!!</t>
+  </si>
+  <si>
+    <t>I have never been to Colorado and this hotel was great! Nothing fancy but the service was wonderful from the front desk to the maids!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r118357209-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>118357209</t>
+  </si>
+  <si>
+    <t>09/20/2011</t>
+  </si>
+  <si>
+    <t>Can't fault this Candlewood Venue</t>
+  </si>
+  <si>
+    <t>We arrived late and tired after a long flight from the UK and didn't have any reason to fault the Candlewood Suites.We took advanatage of an IHG Friends and Family rate (google it) and stayed for $50 in total. This was a very good deal for a clean room in a good location.Staff were friendly and the only downside was that there was no breakfast included when similar properties can do this.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r116015380-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>116015380</t>
+  </si>
+  <si>
+    <t>07/30/2011</t>
+  </si>
+  <si>
+    <t>Would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location that is just minutes from everything. The general manager allowed me to check in a 11:00 am!!! The oops manager gave detailed directions on had to get to downtown golden. The customer service I received was the best I've had in a while. The room was spacious and had a kitten area that included a fridge, stove and microwave. Overall, this was a great stay with a great price!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r115032079-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>115032079</t>
+  </si>
+  <si>
+    <t>07/04/2011</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>We spent 5 nights in the Denver area on vacation and we booked this hotel because it was the best price and got a lot of good reviews on Trip Advisor.  The pluses:  the price was right, the front desk people were friendly, it was a great location for jumping on the highway to get to our tourist destinations.  It has a FREE laundry room - all you need to provide is soap and softener!  (I could have packed a lot less if I'd planned better!).  The unexpected:  I've never stayed at an extended stay hotel before, so didn't realize that you didn't get daily maid service.  That was okay...but I've kind of gotten used to clean towels everyday and having the trash emptied.  So it was a mental adjustment.  But it was also kind of nice to know that no one was in your room while you were gone.  
+The one negative that I have is that the kitchen area and bathroom are dated with 1980's cabinets and an upgrade would make a huge visual improvement!
+I want to commend their customer service because we prepaid for this room at a non-refundable rate.  On night #4, we had a note taped to our door that said there was a problem with our bill.  Turned out that the credit card we had on file with Priority Club (this chain's membership club) had expired, so we didn't prepay - and instead...We spent 5 nights in the Denver area on vacation and we booked this hotel because it was the best price and got a lot of good reviews on Trip Advisor.  The pluses:  the price was right, the front desk people were friendly, it was a great location for jumping on the highway to get to our tourist destinations.  It has a FREE laundry room - all you need to provide is soap and softener!  (I could have packed a lot less if I'd planned better!).  The unexpected:  I've never stayed at an extended stay hotel before, so didn't realize that you didn't get daily maid service.  That was okay...but I've kind of gotten used to clean towels everyday and having the trash emptied.  So it was a mental adjustment.  But it was also kind of nice to know that no one was in your room while you were gone.  The one negative that I have is that the kitchen area and bathroom are dated with 1980's cabinets and an upgrade would make a huge visual improvement!I want to commend their customer service because we prepaid for this room at a non-refundable rate.  On night #4, we had a note taped to our door that said there was a problem with our bill.  Turned out that the credit card we had on file with Priority Club (this chain's membership club) had expired, so we didn't prepay - and instead of canceling our room like they could of, they continued to hold our room and honor our reservation.  (Of course, sure would have been nice if Priority Club had notified us of this because someone with bad customer service would have left us with no hotel room at 11 p.m. on a Friday night!)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We spent 5 nights in the Denver area on vacation and we booked this hotel because it was the best price and got a lot of good reviews on Trip Advisor.  The pluses:  the price was right, the front desk people were friendly, it was a great location for jumping on the highway to get to our tourist destinations.  It has a FREE laundry room - all you need to provide is soap and softener!  (I could have packed a lot less if I'd planned better!).  The unexpected:  I've never stayed at an extended stay hotel before, so didn't realize that you didn't get daily maid service.  That was okay...but I've kind of gotten used to clean towels everyday and having the trash emptied.  So it was a mental adjustment.  But it was also kind of nice to know that no one was in your room while you were gone.  
+The one negative that I have is that the kitchen area and bathroom are dated with 1980's cabinets and an upgrade would make a huge visual improvement!
+I want to commend their customer service because we prepaid for this room at a non-refundable rate.  On night #4, we had a note taped to our door that said there was a problem with our bill.  Turned out that the credit card we had on file with Priority Club (this chain's membership club) had expired, so we didn't prepay - and instead...We spent 5 nights in the Denver area on vacation and we booked this hotel because it was the best price and got a lot of good reviews on Trip Advisor.  The pluses:  the price was right, the front desk people were friendly, it was a great location for jumping on the highway to get to our tourist destinations.  It has a FREE laundry room - all you need to provide is soap and softener!  (I could have packed a lot less if I'd planned better!).  The unexpected:  I've never stayed at an extended stay hotel before, so didn't realize that you didn't get daily maid service.  That was okay...but I've kind of gotten used to clean towels everyday and having the trash emptied.  So it was a mental adjustment.  But it was also kind of nice to know that no one was in your room while you were gone.  The one negative that I have is that the kitchen area and bathroom are dated with 1980's cabinets and an upgrade would make a huge visual improvement!I want to commend their customer service because we prepaid for this room at a non-refundable rate.  On night #4, we had a note taped to our door that said there was a problem with our bill.  Turned out that the credit card we had on file with Priority Club (this chain's membership club) had expired, so we didn't prepay - and instead of canceling our room like they could of, they continued to hold our room and honor our reservation.  (Of course, sure would have been nice if Priority Club had notified us of this because someone with bad customer service would have left us with no hotel room at 11 p.m. on a Friday night!)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r100676637-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>100676637</t>
+  </si>
+  <si>
+    <t>03/18/2011</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>We were in town for a gymnastic meet and booked here because they allowed dogs up to 85 pounds.  Most other motels will not cater to big dogs - ours is 75 pounds.  Once in our room we felt like we were at home.  Bedroom with a queen bed, dresser, closet, nightstand and TV.  Living space had a sofa bed for the kids, recliner, DVD player, TV, coffee table, huge office/kitchen table, office chair, closet, and a full kitchen.  The bathroom was huge and very clean.  We will stay here again when we are in town.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r74170826-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>74170826</t>
+  </si>
+  <si>
+    <t>08/07/2010</t>
+  </si>
+  <si>
+    <t>Mixed Bag</t>
+  </si>
+  <si>
+    <t>This was our second stay at this property.  Based on a good visit last time, we chose it again for our recent trip.The big plus is the price - reasonable rates for quite a bit of space.  It has limited amenities (like vending machines for food), but that isn't a big issue for us.We had a non-smoking room, but it was at the end of a hallway that apparently had rooms without this restriction.  So we had a distracting odor en route to our room. High-speed internet didn't work.  We called the 800 number and a hotel staffer came up with a new modem and cable, but we still never could connected.  Also, the air conditioner never functioned properly - had difficulty cooling the room at night to get comfortable.With these limited service hotels, you have to adjust expectations.  We've had two experiences - one OK and one not so good.  Not the kind of consistency that creates loyalty.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>This was our second stay at this property.  Based on a good visit last time, we chose it again for our recent trip.The big plus is the price - reasonable rates for quite a bit of space.  It has limited amenities (like vending machines for food), but that isn't a big issue for us.We had a non-smoking room, but it was at the end of a hallway that apparently had rooms without this restriction.  So we had a distracting odor en route to our room. High-speed internet didn't work.  We called the 800 number and a hotel staffer came up with a new modem and cable, but we still never could connected.  Also, the air conditioner never functioned properly - had difficulty cooling the room at night to get comfortable.With these limited service hotels, you have to adjust expectations.  We've had two experiences - one OK and one not so good.  Not the kind of consistency that creates loyalty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r67928856-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>67928856</t>
+  </si>
+  <si>
+    <t>06/18/2010</t>
+  </si>
+  <si>
+    <t>Good clean basic extended stay lodging</t>
+  </si>
+  <si>
+    <t>Rented two rooms to spend one night after a late flight into Denver.  I picked this location to get our family out of Denver and near the mountains, where we could continue our westward journey the next day.  Worked like a charm.  The hotel was quiet (Thursday night), the rooms were small, efficiency-style, with few amenities, but were clean and seemed well-kept.  We slept well.  This was my first time in this hotel, but I plan on staying here my next trip into town.  That says it all.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r60272555-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>60272555</t>
+  </si>
+  <si>
+    <t>04/03/2010</t>
+  </si>
+  <si>
+    <t>Great place for extended stay with your pet.</t>
+  </si>
+  <si>
+    <t>I just finished up 4.5 weeks of living at the Candlewood Suites while waiting for the closing on my new home.  I have a large dog (72 lbs) that stayed with me over the weekends.  The staff were very considerate and helpful.  The room had nice cookware and storage dishes for leftovers.  I did bring my own wine bottle opener which was needed.  The refrigerator was a nice size, 2 element stove top and microwave.  Good storage.  Rooms cleaned once per week and you could trade in towels at any time if needed.  The bed was VERY comfortable with a feather type topper on the mattress.  I am VERY picky about beds and had a good nights sleep every night.  Lots of nice pillows too.  The recliner was excellent to relax in and free internet and cable.  Free washers and dryers.  There is a park close where you can walk your dog as well as use the grassy areas around the hotel.  Baggies were made available to pick up after your dog.  A lot of owners did not comply so walking in the park was a better option.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I just finished up 4.5 weeks of living at the Candlewood Suites while waiting for the closing on my new home.  I have a large dog (72 lbs) that stayed with me over the weekends.  The staff were very considerate and helpful.  The room had nice cookware and storage dishes for leftovers.  I did bring my own wine bottle opener which was needed.  The refrigerator was a nice size, 2 element stove top and microwave.  Good storage.  Rooms cleaned once per week and you could trade in towels at any time if needed.  The bed was VERY comfortable with a feather type topper on the mattress.  I am VERY picky about beds and had a good nights sleep every night.  Lots of nice pillows too.  The recliner was excellent to relax in and free internet and cable.  Free washers and dryers.  There is a park close where you can walk your dog as well as use the grassy areas around the hotel.  Baggies were made available to pick up after your dog.  A lot of owners did not comply so walking in the park was a better option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r48067201-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>48067201</t>
+  </si>
+  <si>
+    <t>10/29/2009</t>
+  </si>
+  <si>
+    <t>Good, comfortable digs</t>
+  </si>
+  <si>
+    <t>I spent a full week here and have no complaints - it fits the bill as a comfortable, no-frills extended stay hotel. Cooking supplies for the two-burner stove were rather limited, but otherwise a fine comfortable room including in-house DVD rental. The nearest restaurant is unimpressive, but those with a car can access several good places to eat on the main Union Blvd. drag within several blocks. Grocery stores are not (as advertised) close, unless by groceries you mean liquor store and 7-11. It is a little over a mile to the nearest King Soopers to stock up for the stay. However, it is convenient to the Denver Federal Center.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I spent a full week here and have no complaints - it fits the bill as a comfortable, no-frills extended stay hotel. Cooking supplies for the two-burner stove were rather limited, but otherwise a fine comfortable room including in-house DVD rental. The nearest restaurant is unimpressive, but those with a car can access several good places to eat on the main Union Blvd. drag within several blocks. Grocery stores are not (as advertised) close, unless by groceries you mean liquor store and 7-11. It is a little over a mile to the nearest King Soopers to stock up for the stay. However, it is convenient to the Denver Federal Center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r43790321-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>43790321</t>
+  </si>
+  <si>
+    <t>09/23/2009</t>
+  </si>
+  <si>
+    <t>A Pleasure</t>
+  </si>
+  <si>
+    <t>I stayed a week at Candlewood Suites in Lakewood.  I was going to stay at Staybridge, but the price went up, so I went with Candlewood.  I had a great experience there!
+ROOM
+My room had a DVD/VCR combo with the TV which was very simple to use.  My kitchen had lots of pots and pans, and dishes.  There are enough outlets for plugging in a full office at the table.  I didn't have any problem making my meals, although they could've had a strainer.  There is both dishwashing liquid and dishwashing detergent available, depending on how you want to wash your dishes.  It had a reclining leather chair.  The bathroom was great, and you could ask for more towels if needed.  Everything worked great.
+LOCATION
+Candlewood Suites Lakewood is on the far west side of town, near the mountains.  Red Rocks Park and other parks are only a few minutes away.  King Sooper's grocery is only a mile away, and there is a Super Target at Colorado Mills about 5 min. away.  It's only about 11 min. from Invesco Field at Mile High, where I went to see a lacrosse game, and a little bit further to downtown.  The Coors Brewery is pretty close.  It's great if you want to see the city or the mountains.  I loved the location!
+AMENITIES
+There are not a lot of amenities (no pool) because the focus is on making the room great....I stayed a week at Candlewood Suites in Lakewood.  I was going to stay at Staybridge, but the price went up, so I went with Candlewood.  I had a great experience there!ROOMMy room had a DVD/VCR combo with the TV which was very simple to use.  My kitchen had lots of pots and pans, and dishes.  There are enough outlets for plugging in a full office at the table.  I didn't have any problem making my meals, although they could've had a strainer.  There is both dishwashing liquid and dishwashing detergent available, depending on how you want to wash your dishes.  It had a reclining leather chair.  The bathroom was great, and you could ask for more towels if needed.  Everything worked great.LOCATIONCandlewood Suites Lakewood is on the far west side of town, near the mountains.  Red Rocks Park and other parks are only a few minutes away.  King Sooper's grocery is only a mile away, and there is a Super Target at Colorado Mills about 5 min. away.  It's only about 11 min. from Invesco Field at Mile High, where I went to see a lacrosse game, and a little bit further to downtown.  The Coors Brewery is pretty close.  It's great if you want to see the city or the mountains.  I loved the location!AMENITIESThere are not a lot of amenities (no pool) because the focus is on making the room great.  As you might know, housekeeping is only done weekly after the 7th day of your stay.  I was aware of that when booking.  There was a small gym and the Candlewood Cupboard can be used for a convenient snack using the honors system.  There is a nice barbecue patio on the East side.SERVICEI was really pleased with the check-in and service.  When I was checking out, my card key got deactivated too early, locking me out, but the front desk clerk solved the problem immediately.  Overall, it was a great value.  I loved my stay and look forward to my next visit at Candlewood Suites in Lakewood!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>I stayed a week at Candlewood Suites in Lakewood.  I was going to stay at Staybridge, but the price went up, so I went with Candlewood.  I had a great experience there!
+ROOM
+My room had a DVD/VCR combo with the TV which was very simple to use.  My kitchen had lots of pots and pans, and dishes.  There are enough outlets for plugging in a full office at the table.  I didn't have any problem making my meals, although they could've had a strainer.  There is both dishwashing liquid and dishwashing detergent available, depending on how you want to wash your dishes.  It had a reclining leather chair.  The bathroom was great, and you could ask for more towels if needed.  Everything worked great.
+LOCATION
+Candlewood Suites Lakewood is on the far west side of town, near the mountains.  Red Rocks Park and other parks are only a few minutes away.  King Sooper's grocery is only a mile away, and there is a Super Target at Colorado Mills about 5 min. away.  It's only about 11 min. from Invesco Field at Mile High, where I went to see a lacrosse game, and a little bit further to downtown.  The Coors Brewery is pretty close.  It's great if you want to see the city or the mountains.  I loved the location!
+AMENITIES
+There are not a lot of amenities (no pool) because the focus is on making the room great....I stayed a week at Candlewood Suites in Lakewood.  I was going to stay at Staybridge, but the price went up, so I went with Candlewood.  I had a great experience there!ROOMMy room had a DVD/VCR combo with the TV which was very simple to use.  My kitchen had lots of pots and pans, and dishes.  There are enough outlets for plugging in a full office at the table.  I didn't have any problem making my meals, although they could've had a strainer.  There is both dishwashing liquid and dishwashing detergent available, depending on how you want to wash your dishes.  It had a reclining leather chair.  The bathroom was great, and you could ask for more towels if needed.  Everything worked great.LOCATIONCandlewood Suites Lakewood is on the far west side of town, near the mountains.  Red Rocks Park and other parks are only a few minutes away.  King Sooper's grocery is only a mile away, and there is a Super Target at Colorado Mills about 5 min. away.  It's only about 11 min. from Invesco Field at Mile High, where I went to see a lacrosse game, and a little bit further to downtown.  The Coors Brewery is pretty close.  It's great if you want to see the city or the mountains.  I loved the location!AMENITIESThere are not a lot of amenities (no pool) because the focus is on making the room great.  As you might know, housekeeping is only done weekly after the 7th day of your stay.  I was aware of that when booking.  There was a small gym and the Candlewood Cupboard can be used for a convenient snack using the honors system.  There is a nice barbecue patio on the East side.SERVICEI was really pleased with the check-in and service.  When I was checking out, my card key got deactivated too early, locking me out, but the front desk clerk solved the problem immediately.  Overall, it was a great value.  I loved my stay and look forward to my next visit at Candlewood Suites in Lakewood!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r23439179-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>23439179</t>
+  </si>
+  <si>
+    <t>01/10/2009</t>
+  </si>
+  <si>
+    <t>Hotel good but rooms small</t>
+  </si>
+  <si>
+    <t>Hotel no doubt is really good ,rooms are excellent but they have all queen size bed rooms.This is basically for business traveler.We were three  and one had to sleep on sofa cum bed .We had all the amenities in kitchen for our limited requirements for break fast .We stayed for 1 night.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r18211306-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>18211306</t>
+  </si>
+  <si>
+    <t>07/24/2008</t>
+  </si>
+  <si>
+    <t>Wonderful hotel, marvelous stay!!</t>
+  </si>
+  <si>
+    <t>This the best extended stay hotel I've seen.  I was in town on business for 14 days and this hotel made me feel right at home.  The beds are very comfortable, great linens and towels.  The kitchenette is perfect, no need to eat out every night.  Loved the free laundry.  Plus this hotel is very quiet.  No disturbances or noise at night at all.  The suite is bigger than standard hotel rooms, too, making it more comfortable.  Overall, for the price, it just doesn't get much better than this.   Perfect for extended business trips.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r18208407-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>18208407</t>
+  </si>
+  <si>
+    <t>Short Stay, Excellent Service!! Great Manager!!!!!</t>
+  </si>
+  <si>
+    <t>I only stayed one night here, but was very impressed with the the rooms, the ammenities in the room, and the cleanliness of the suites. I will definately stay at this and other Candlewood Suites in the future.The manager (Donna??) was wonderful. After being delayed a day due to a cancelled flight, Donna did not charge me for the missed night and let me check in super early the nexty morning so I could shower and dress before my noon meeting. The other staff were friendly and willing to help. I really enjoyed my one night at the Candlewood Suites in Lakewood. Thanks again Donna!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r17026625-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>17026625</t>
+  </si>
+  <si>
+    <t>06/18/2008</t>
+  </si>
+  <si>
+    <t>Great Stay, Great Staff, Great Property</t>
+  </si>
+  <si>
+    <t>We were originally booked at the Marriott Town Place Suites just up the street from this hotel.  I had seen the property online, noted the lower price and similar features, but honestly had never stayed at a Candlewood Suites before and was hesitant.
+When we got into town we stopped at the Marriott Town Place and looked around, and then thought, what the heck, let’s look at this property.  We were first greeted by the general manager who was working the desk, and the warm, inviting greeting was a pleasant surprise.  She showed us the one room suite and I was impressed, it was extremely clean, extremely nice, and much better than the Marriott.  We than spent some time checking dates and availability, again outstanding customer service.  It was an easy decision, book with Candelwood Suites and cancel with Marriott.
+Our stay, each and every person behind the desk was so helpful and so friendly.  The room was extremely clean, the kitchen was well stocked and everything almost seemed brand new.  The facility was clean everywhere and very quite.  It honestly felt like I was home.  I can’t forget to mention the bed, wow was it soft and comfortable!
+My wife and I come to Denver a lot to visit her brother and our new god daughter.  I will only ever stay at your property!  I travel the nation almost every week and stay in hotels almost 20 nights a...We were originally booked at the Marriott Town Place Suites just up the street from this hotel.  I had seen the property online, noted the lower price and similar features, but honestly had never stayed at a Candlewood Suites before and was hesitant.When we got into town we stopped at the Marriott Town Place and looked around, and then thought, what the heck, let’s look at this property.  We were first greeted by the general manager who was working the desk, and the warm, inviting greeting was a pleasant surprise.  She showed us the one room suite and I was impressed, it was extremely clean, extremely nice, and much better than the Marriott.  We than spent some time checking dates and availability, again outstanding customer service.  It was an easy decision, book with Candelwood Suites and cancel with Marriott.Our stay, each and every person behind the desk was so helpful and so friendly.  The room was extremely clean, the kitchen was well stocked and everything almost seemed brand new.  The facility was clean everywhere and very quite.  It honestly felt like I was home.  I can’t forget to mention the bed, wow was it soft and comfortable!My wife and I come to Denver a lot to visit her brother and our new god daughter.  I will only ever stay at your property!  I travel the nation almost every week and stay in hotels almost 20 nights a month, and this was honestly the best I have ever stayed at!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>We were originally booked at the Marriott Town Place Suites just up the street from this hotel.  I had seen the property online, noted the lower price and similar features, but honestly had never stayed at a Candlewood Suites before and was hesitant.
+When we got into town we stopped at the Marriott Town Place and looked around, and then thought, what the heck, let’s look at this property.  We were first greeted by the general manager who was working the desk, and the warm, inviting greeting was a pleasant surprise.  She showed us the one room suite and I was impressed, it was extremely clean, extremely nice, and much better than the Marriott.  We than spent some time checking dates and availability, again outstanding customer service.  It was an easy decision, book with Candelwood Suites and cancel with Marriott.
+Our stay, each and every person behind the desk was so helpful and so friendly.  The room was extremely clean, the kitchen was well stocked and everything almost seemed brand new.  The facility was clean everywhere and very quite.  It honestly felt like I was home.  I can’t forget to mention the bed, wow was it soft and comfortable!
+My wife and I come to Denver a lot to visit her brother and our new god daughter.  I will only ever stay at your property!  I travel the nation almost every week and stay in hotels almost 20 nights a...We were originally booked at the Marriott Town Place Suites just up the street from this hotel.  I had seen the property online, noted the lower price and similar features, but honestly had never stayed at a Candlewood Suites before and was hesitant.When we got into town we stopped at the Marriott Town Place and looked around, and then thought, what the heck, let’s look at this property.  We were first greeted by the general manager who was working the desk, and the warm, inviting greeting was a pleasant surprise.  She showed us the one room suite and I was impressed, it was extremely clean, extremely nice, and much better than the Marriott.  We than spent some time checking dates and availability, again outstanding customer service.  It was an easy decision, book with Candelwood Suites and cancel with Marriott.Our stay, each and every person behind the desk was so helpful and so friendly.  The room was extremely clean, the kitchen was well stocked and everything almost seemed brand new.  The facility was clean everywhere and very quite.  It honestly felt like I was home.  I can’t forget to mention the bed, wow was it soft and comfortable!My wife and I come to Denver a lot to visit her brother and our new god daughter.  I will only ever stay at your property!  I travel the nation almost every week and stay in hotels almost 20 nights a month, and this was honestly the best I have ever stayed at!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r8752219-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>8752219</t>
+  </si>
+  <si>
+    <t>09/17/2007</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Candlewood was very nice, inviting entry way, and friendly staff at the front desk.  This is a newer establishment, the decor is updated and very clean.  We have a 7-month old baby, so the kitchenette was a must, it was nice to have a dishwasher and stove top to take care of necessary baby chores.  We particularly enjoyed the on-site (free!) laundry area, all you need is your own soap.   The room was really spacious, large enough for our daughter to crawl around, and the bathroom was also good sized, it was clean, simple.  One thing we noticed was you don't hear much noise when inside the room, so many times you can hear the neighbors or hall noise and it was very quiet while we were there.  The only sort of bad comment I have is, we had an issue with the toilet not functioning properly, and we contacted the front desk, there was only one person on duty so he couldn't take care of it at that time, and we had to leave to go to a wedding, upon returning at 10:00 p.m or so, the front desk attendant told us that we would have to wait until 11:00 before he could leave to go get something to fix the toilet, we'll that wasn't going to work, a toilet is pretty much a necessity and they offered to give us another room (at 10:45 p.m.), we had to...Candlewood was very nice, inviting entry way, and friendly staff at the front desk.  This is a newer establishment, the decor is updated and very clean.  We have a 7-month old baby, so the kitchenette was a must, it was nice to have a dishwasher and stove top to take care of necessary baby chores.  We particularly enjoyed the on-site (free!) laundry area, all you need is your own soap.   The room was really spacious, large enough for our daughter to crawl around, and the bathroom was also good sized, it was clean, simple.  One thing we noticed was you don't hear much noise when inside the room, so many times you can hear the neighbors or hall noise and it was very quiet while we were there.  The only sort of bad comment I have is, we had an issue with the toilet not functioning properly, and we contacted the front desk, there was only one person on duty so he couldn't take care of it at that time, and we had to leave to go to a wedding, upon returning at 10:00 p.m or so, the front desk attendant told us that we would have to wait until 11:00 before he could leave to go get something to fix the toilet, we'll that wasn't going to work, a toilet is pretty much a necessity and they offered to give us another room (at 10:45 p.m.), we had to take it since we needed a functioning toilet, my husband wasn't too thrilled about moving our stuff that late at night, but at least the hotel tried to accommodate the situation, that I appreciate.  Also, they don't have king beds, only queens.  This was a nice place for the price ($52 a night on Hotwire) and it really served it's purpose for our family.   I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>Candlewood was very nice, inviting entry way, and friendly staff at the front desk.  This is a newer establishment, the decor is updated and very clean.  We have a 7-month old baby, so the kitchenette was a must, it was nice to have a dishwasher and stove top to take care of necessary baby chores.  We particularly enjoyed the on-site (free!) laundry area, all you need is your own soap.   The room was really spacious, large enough for our daughter to crawl around, and the bathroom was also good sized, it was clean, simple.  One thing we noticed was you don't hear much noise when inside the room, so many times you can hear the neighbors or hall noise and it was very quiet while we were there.  The only sort of bad comment I have is, we had an issue with the toilet not functioning properly, and we contacted the front desk, there was only one person on duty so he couldn't take care of it at that time, and we had to leave to go to a wedding, upon returning at 10:00 p.m or so, the front desk attendant told us that we would have to wait until 11:00 before he could leave to go get something to fix the toilet, we'll that wasn't going to work, a toilet is pretty much a necessity and they offered to give us another room (at 10:45 p.m.), we had to...Candlewood was very nice, inviting entry way, and friendly staff at the front desk.  This is a newer establishment, the decor is updated and very clean.  We have a 7-month old baby, so the kitchenette was a must, it was nice to have a dishwasher and stove top to take care of necessary baby chores.  We particularly enjoyed the on-site (free!) laundry area, all you need is your own soap.   The room was really spacious, large enough for our daughter to crawl around, and the bathroom was also good sized, it was clean, simple.  One thing we noticed was you don't hear much noise when inside the room, so many times you can hear the neighbors or hall noise and it was very quiet while we were there.  The only sort of bad comment I have is, we had an issue with the toilet not functioning properly, and we contacted the front desk, there was only one person on duty so he couldn't take care of it at that time, and we had to leave to go to a wedding, upon returning at 10:00 p.m or so, the front desk attendant told us that we would have to wait until 11:00 before he could leave to go get something to fix the toilet, we'll that wasn't going to work, a toilet is pretty much a necessity and they offered to give us another room (at 10:45 p.m.), we had to take it since we needed a functioning toilet, my husband wasn't too thrilled about moving our stuff that late at night, but at least the hotel tried to accommodate the situation, that I appreciate.  Also, they don't have king beds, only queens.  This was a nice place for the price ($52 a night on Hotwire) and it really served it's purpose for our family.   I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r8442874-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>8442874</t>
+  </si>
+  <si>
+    <t>08/16/2007</t>
+  </si>
+  <si>
+    <t>Super experience!</t>
+  </si>
+  <si>
+    <t>We stayed at the Candlewood Suites in Lakewood and it was very nice!  Super comfy beds, big, plush towels, everything we needed was there!  The young man overseeing operations was very personable and helpful with directions.  We would definately stay at this location again!</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d85318-r5947351-Candlewood_Suites_Denver_Lakewood-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>5947351</t>
+  </si>
+  <si>
+    <t>10/11/2006</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>We just spent a Friday night here. The room is about 200' ft. Slightly larger than a normal hotel room of this type. As you entered the room, there's a sink, microwave (with a bag of popcorn), and fridge. I guess you can move in!   :)Font desk had free movies for your player in the room.They have an honor food room that contains the washer/dryers.7-11 across the street.No computers available.Comfy bed. Nice bathroom. Cheery room. Just off Route 6, about 15-20 minutes west of downtown Denver.I'd go back.</t>
+  </si>
+  <si>
+    <t>October 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2388,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2420,5752 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X15" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>142</v>
+      </c>
+      <c r="X16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>157</v>
+      </c>
+      <c r="X17" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>157</v>
+      </c>
+      <c r="X18" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>157</v>
+      </c>
+      <c r="X19" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s">
+        <v>201</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>202</v>
+      </c>
+      <c r="O23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>203</v>
+      </c>
+      <c r="X23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>212</v>
+      </c>
+      <c r="X24" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>211</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>212</v>
+      </c>
+      <c r="X25" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>212</v>
+      </c>
+      <c r="X26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" t="s">
+        <v>230</v>
+      </c>
+      <c r="K27" t="s">
+        <v>231</v>
+      </c>
+      <c r="L27" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>212</v>
+      </c>
+      <c r="X27" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>212</v>
+      </c>
+      <c r="X28" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>245</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>246</v>
+      </c>
+      <c r="X29" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>246</v>
+      </c>
+      <c r="X30" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L31" t="s">
+        <v>260</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>245</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>246</v>
+      </c>
+      <c r="X31" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K32" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s">
+        <v>266</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>268</v>
+      </c>
+      <c r="X32" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>277</v>
+      </c>
+      <c r="X33" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>286</v>
+      </c>
+      <c r="X34" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>285</v>
+      </c>
+      <c r="O35" t="s">
+        <v>165</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>294</v>
+      </c>
+      <c r="X35" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s">
+        <v>301</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>302</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>294</v>
+      </c>
+      <c r="X36" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J37" t="s">
+        <v>299</v>
+      </c>
+      <c r="K37" t="s">
+        <v>306</v>
+      </c>
+      <c r="L37" t="s">
+        <v>307</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>302</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>294</v>
+      </c>
+      <c r="X37" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>310</v>
+      </c>
+      <c r="J38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" t="s">
+        <v>313</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>314</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>294</v>
+      </c>
+      <c r="X38" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>317</v>
+      </c>
+      <c r="J39" t="s">
+        <v>318</v>
+      </c>
+      <c r="K39" t="s">
+        <v>319</v>
+      </c>
+      <c r="L39" t="s">
+        <v>320</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>314</v>
+      </c>
+      <c r="O39" t="s">
+        <v>106</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>294</v>
+      </c>
+      <c r="X39" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>322</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>323</v>
+      </c>
+      <c r="J40" t="s">
+        <v>324</v>
+      </c>
+      <c r="K40" t="s">
+        <v>325</v>
+      </c>
+      <c r="L40" t="s">
+        <v>326</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>314</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>294</v>
+      </c>
+      <c r="X40" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>329</v>
+      </c>
+      <c r="J41" t="s">
+        <v>330</v>
+      </c>
+      <c r="K41" t="s">
+        <v>331</v>
+      </c>
+      <c r="L41" t="s">
+        <v>332</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>314</v>
+      </c>
+      <c r="O41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>294</v>
+      </c>
+      <c r="X41" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>334</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>335</v>
+      </c>
+      <c r="J42" t="s">
+        <v>336</v>
+      </c>
+      <c r="K42" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" t="s">
+        <v>338</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>339</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>294</v>
+      </c>
+      <c r="X42" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" t="s">
+        <v>345</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>339</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>294</v>
+      </c>
+      <c r="X43" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>347</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>348</v>
+      </c>
+      <c r="J44" t="s">
+        <v>349</v>
+      </c>
+      <c r="K44" t="s">
+        <v>350</v>
+      </c>
+      <c r="L44" t="s">
+        <v>351</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>352</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>353</v>
+      </c>
+      <c r="X44" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" t="s">
+        <v>349</v>
+      </c>
+      <c r="K45" t="s">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s">
+        <v>359</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>352</v>
+      </c>
+      <c r="O45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>294</v>
+      </c>
+      <c r="X45" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>361</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>362</v>
+      </c>
+      <c r="J46" t="s">
+        <v>363</v>
+      </c>
+      <c r="K46" t="s">
+        <v>364</v>
+      </c>
+      <c r="L46" t="s">
+        <v>365</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>366</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>367</v>
+      </c>
+      <c r="X46" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>371</v>
+      </c>
+      <c r="J47" t="s">
+        <v>372</v>
+      </c>
+      <c r="K47" t="s">
+        <v>373</v>
+      </c>
+      <c r="L47" t="s">
+        <v>374</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>375</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>376</v>
+      </c>
+      <c r="X47" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>379</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>380</v>
+      </c>
+      <c r="J48" t="s">
+        <v>381</v>
+      </c>
+      <c r="K48" t="s">
+        <v>382</v>
+      </c>
+      <c r="L48" t="s">
+        <v>383</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>375</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>376</v>
+      </c>
+      <c r="X48" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>385</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>386</v>
+      </c>
+      <c r="J49" t="s">
+        <v>387</v>
+      </c>
+      <c r="K49" t="s">
+        <v>388</v>
+      </c>
+      <c r="L49" t="s">
+        <v>389</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>390</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>376</v>
+      </c>
+      <c r="X49" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>392</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" t="s">
+        <v>394</v>
+      </c>
+      <c r="K50" t="s">
+        <v>395</v>
+      </c>
+      <c r="L50" t="s">
+        <v>396</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>390</v>
+      </c>
+      <c r="O50" t="s">
+        <v>165</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>397</v>
+      </c>
+      <c r="X50" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>400</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>401</v>
+      </c>
+      <c r="J51" t="s">
+        <v>402</v>
+      </c>
+      <c r="K51" t="s">
+        <v>403</v>
+      </c>
+      <c r="L51" t="s">
+        <v>404</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>405</v>
+      </c>
+      <c r="O51" t="s">
+        <v>165</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>406</v>
+      </c>
+      <c r="X51" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>408</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>409</v>
+      </c>
+      <c r="J52" t="s">
+        <v>410</v>
+      </c>
+      <c r="K52" t="s">
+        <v>411</v>
+      </c>
+      <c r="L52" t="s">
+        <v>412</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>390</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>376</v>
+      </c>
+      <c r="X52" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>414</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>415</v>
+      </c>
+      <c r="J53" t="s">
+        <v>416</v>
+      </c>
+      <c r="K53" t="s">
+        <v>417</v>
+      </c>
+      <c r="L53" t="s">
+        <v>418</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>419</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>294</v>
+      </c>
+      <c r="X53" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>422</v>
+      </c>
+      <c r="J54" t="s">
+        <v>423</v>
+      </c>
+      <c r="K54" t="s">
+        <v>424</v>
+      </c>
+      <c r="L54" t="s">
+        <v>425</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>419</v>
+      </c>
+      <c r="O54" t="s">
+        <v>67</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>426</v>
+      </c>
+      <c r="X54" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>429</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>430</v>
+      </c>
+      <c r="J55" t="s">
+        <v>431</v>
+      </c>
+      <c r="K55" t="s">
+        <v>432</v>
+      </c>
+      <c r="L55" t="s">
+        <v>433</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>434</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>436</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>437</v>
+      </c>
+      <c r="J56" t="s">
+        <v>438</v>
+      </c>
+      <c r="K56" t="s">
+        <v>439</v>
+      </c>
+      <c r="L56" t="s">
+        <v>440</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>441</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>442</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>443</v>
+      </c>
+      <c r="J57" t="s">
+        <v>444</v>
+      </c>
+      <c r="K57" t="s">
+        <v>445</v>
+      </c>
+      <c r="L57" t="s">
+        <v>446</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>447</v>
+      </c>
+      <c r="O57" t="s">
+        <v>67</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>448</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>449</v>
+      </c>
+      <c r="J58" t="s">
+        <v>450</v>
+      </c>
+      <c r="K58" t="s">
+        <v>451</v>
+      </c>
+      <c r="L58" t="s">
+        <v>452</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>453</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>454</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>455</v>
+      </c>
+      <c r="J59" t="s">
+        <v>456</v>
+      </c>
+      <c r="K59" t="s">
+        <v>457</v>
+      </c>
+      <c r="L59" t="s">
+        <v>458</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>453</v>
+      </c>
+      <c r="O59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>460</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>461</v>
+      </c>
+      <c r="J60" t="s">
+        <v>462</v>
+      </c>
+      <c r="K60" t="s">
+        <v>463</v>
+      </c>
+      <c r="L60" t="s">
+        <v>464</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>465</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>466</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>467</v>
+      </c>
+      <c r="J61" t="s">
+        <v>468</v>
+      </c>
+      <c r="K61" t="s">
+        <v>469</v>
+      </c>
+      <c r="L61" t="s">
+        <v>470</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>472</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" t="s">
+        <v>474</v>
+      </c>
+      <c r="K62" t="s">
+        <v>475</v>
+      </c>
+      <c r="L62" t="s">
+        <v>476</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>477</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>478</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>479</v>
+      </c>
+      <c r="J63" t="s">
+        <v>480</v>
+      </c>
+      <c r="K63" t="s">
+        <v>481</v>
+      </c>
+      <c r="L63" t="s">
+        <v>482</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>483</v>
+      </c>
+      <c r="O63" t="s">
+        <v>106</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>485</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>486</v>
+      </c>
+      <c r="J64" t="s">
+        <v>487</v>
+      </c>
+      <c r="K64" t="s">
+        <v>488</v>
+      </c>
+      <c r="L64" t="s">
+        <v>489</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>490</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>492</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>493</v>
+      </c>
+      <c r="J65" t="s">
+        <v>494</v>
+      </c>
+      <c r="K65" t="s">
+        <v>495</v>
+      </c>
+      <c r="L65" t="s">
+        <v>496</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>490</v>
+      </c>
+      <c r="O65" t="s">
+        <v>106</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>498</v>
+      </c>
+      <c r="J66" t="s">
+        <v>499</v>
+      </c>
+      <c r="K66" t="s">
+        <v>500</v>
+      </c>
+      <c r="L66" t="s">
+        <v>501</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>502</v>
+      </c>
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>503</v>
+      </c>
+      <c r="X66" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>506</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>507</v>
+      </c>
+      <c r="J67" t="s">
+        <v>508</v>
+      </c>
+      <c r="K67" t="s">
+        <v>509</v>
+      </c>
+      <c r="L67" t="s">
+        <v>510</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>490</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>511</v>
+      </c>
+      <c r="X67" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>514</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>515</v>
+      </c>
+      <c r="J68" t="s">
+        <v>516</v>
+      </c>
+      <c r="K68" t="s">
+        <v>517</v>
+      </c>
+      <c r="L68" t="s">
+        <v>518</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>519</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>520</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>521</v>
+      </c>
+      <c r="J69" t="s">
+        <v>522</v>
+      </c>
+      <c r="K69" t="s">
+        <v>523</v>
+      </c>
+      <c r="L69" t="s">
+        <v>524</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>519</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>525</v>
+      </c>
+      <c r="X69" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>528</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>529</v>
+      </c>
+      <c r="J70" t="s">
+        <v>530</v>
+      </c>
+      <c r="K70" t="s">
+        <v>531</v>
+      </c>
+      <c r="L70" t="s">
+        <v>532</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>533</v>
+      </c>
+      <c r="O70" t="s">
+        <v>67</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>534</v>
+      </c>
+      <c r="X70" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>537</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>538</v>
+      </c>
+      <c r="J71" t="s">
+        <v>539</v>
+      </c>
+      <c r="K71" t="s">
+        <v>540</v>
+      </c>
+      <c r="L71" t="s">
+        <v>541</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>519</v>
+      </c>
+      <c r="O71" t="s">
+        <v>67</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>543</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>544</v>
+      </c>
+      <c r="J72" t="s">
+        <v>545</v>
+      </c>
+      <c r="K72" t="s">
+        <v>546</v>
+      </c>
+      <c r="L72" t="s">
+        <v>547</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>548</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>549</v>
+      </c>
+      <c r="J73" t="s">
+        <v>550</v>
+      </c>
+      <c r="K73" t="s">
+        <v>551</v>
+      </c>
+      <c r="L73" t="s">
+        <v>552</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>483</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>553</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>554</v>
+      </c>
+      <c r="J74" t="s">
+        <v>555</v>
+      </c>
+      <c r="K74" t="s">
+        <v>556</v>
+      </c>
+      <c r="L74" t="s">
+        <v>557</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>558</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>559</v>
+      </c>
+      <c r="J75" t="s">
+        <v>560</v>
+      </c>
+      <c r="K75" t="s">
+        <v>561</v>
+      </c>
+      <c r="L75" t="s">
+        <v>562</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>563</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>565</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>566</v>
+      </c>
+      <c r="J76" t="s">
+        <v>567</v>
+      </c>
+      <c r="K76" t="s">
+        <v>568</v>
+      </c>
+      <c r="L76" t="s">
+        <v>569</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>570</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>571</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>572</v>
+      </c>
+      <c r="J77" t="s">
+        <v>573</v>
+      </c>
+      <c r="K77" t="s">
+        <v>574</v>
+      </c>
+      <c r="L77" t="s">
+        <v>575</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>576</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>578</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>579</v>
+      </c>
+      <c r="J78" t="s">
+        <v>580</v>
+      </c>
+      <c r="K78" t="s">
+        <v>581</v>
+      </c>
+      <c r="L78" t="s">
+        <v>582</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>583</v>
+      </c>
+      <c r="O78" t="s">
+        <v>67</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>584</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>585</v>
+      </c>
+      <c r="J79" t="s">
+        <v>586</v>
+      </c>
+      <c r="K79" t="s">
+        <v>587</v>
+      </c>
+      <c r="L79" t="s">
+        <v>588</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>589</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>591</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>592</v>
+      </c>
+      <c r="J80" t="s">
+        <v>593</v>
+      </c>
+      <c r="K80" t="s">
+        <v>594</v>
+      </c>
+      <c r="L80" t="s">
+        <v>595</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>596</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>598</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>599</v>
+      </c>
+      <c r="J81" t="s">
+        <v>600</v>
+      </c>
+      <c r="K81" t="s">
+        <v>601</v>
+      </c>
+      <c r="L81" t="s">
+        <v>602</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>603</v>
+      </c>
+      <c r="O81" t="s">
+        <v>165</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>605</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>606</v>
+      </c>
+      <c r="J82" t="s">
+        <v>607</v>
+      </c>
+      <c r="K82" t="s">
+        <v>608</v>
+      </c>
+      <c r="L82" t="s">
+        <v>609</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>610</v>
+      </c>
+      <c r="O82" t="s">
+        <v>106</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>611</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>612</v>
+      </c>
+      <c r="J83" t="s">
+        <v>613</v>
+      </c>
+      <c r="K83" t="s">
+        <v>614</v>
+      </c>
+      <c r="L83" t="s">
+        <v>615</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>616</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>617</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>618</v>
+      </c>
+      <c r="J84" t="s">
+        <v>613</v>
+      </c>
+      <c r="K84" t="s">
+        <v>619</v>
+      </c>
+      <c r="L84" t="s">
+        <v>620</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>616</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>621</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>622</v>
+      </c>
+      <c r="J85" t="s">
+        <v>623</v>
+      </c>
+      <c r="K85" t="s">
+        <v>624</v>
+      </c>
+      <c r="L85" t="s">
+        <v>625</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>626</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>628</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>629</v>
+      </c>
+      <c r="J86" t="s">
+        <v>630</v>
+      </c>
+      <c r="K86" t="s">
+        <v>631</v>
+      </c>
+      <c r="L86" t="s">
+        <v>632</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>633</v>
+      </c>
+      <c r="O86" t="s">
+        <v>67</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>635</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>636</v>
+      </c>
+      <c r="J87" t="s">
+        <v>637</v>
+      </c>
+      <c r="K87" t="s">
+        <v>638</v>
+      </c>
+      <c r="L87" t="s">
+        <v>639</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>640</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>37329</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>641</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>642</v>
+      </c>
+      <c r="J88" t="s">
+        <v>643</v>
+      </c>
+      <c r="K88" t="s">
+        <v>644</v>
+      </c>
+      <c r="L88" t="s">
+        <v>645</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>646</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>
